--- a/resources/orders/main_template/Шаблон заявки с справочниками.xlsx
+++ b/resources/orders/main_template/Шаблон заявки с справочниками.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_work\_RTK\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04F5CC-0AB8-4334-A928-0854414EAFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741F2FE-5664-4E68-A68E-5FBB1D434434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31305" yWindow="1980" windowWidth="19440" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заявки" sheetId="2" r:id="rId1"/>
     <sheet name="JetBrains" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="Классификатор Минкомсвязи" sheetId="1" r:id="rId3"/>
     <sheet name="Наименование ПО" sheetId="8" r:id="rId4"/>
-    <sheet name="ФИО Руководителя" sheetId="3" r:id="rId5"/>
-    <sheet name="тип лицензии" sheetId="5" r:id="rId6"/>
-    <sheet name="Наименование проекта" sheetId="9" r:id="rId7"/>
+    <sheet name="Страны" sheetId="10" r:id="rId5"/>
+    <sheet name="ФИО Руководителя" sheetId="3" r:id="rId6"/>
+    <sheet name="тип лицензии" sheetId="5" r:id="rId7"/>
+    <sheet name="Наименование проекта" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JetBrains!$F$1:$F$411</definedName>
@@ -80,6 +81,146 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A122" authorId="0" shapeId="0" xr:uid="{2743DEF2-1B6A-442C-8D48-F4E63A0DD211}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выдано из резерва, включить в закупку на след. квартал</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A123" authorId="0" shapeId="0" xr:uid="{311CB4B1-F64A-4CF9-9D61-9BC0EFFC6B01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выдано из резерва, включить в закупку след. квартала</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A124" authorId="0" shapeId="0" xr:uid="{9C4DBF52-4DE1-4BF5-B241-635529347ED7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выдано из резева, включить в закупку след. квартала</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A125" authorId="0" shapeId="0" xr:uid="{7B343E80-6A9F-4B98-8521-CF56C19D58F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выдано из резерва. Включить в закупку след. квартала</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A126" authorId="0" shapeId="0" xr:uid="{A0189FA9-7EAE-482E-8BFD-F676D588E846}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выдано из резерва, включить в закупку 3 квартала</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
@@ -220,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="2629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="2631">
   <si>
     <t>Система показателей эффективности перехода ПАО "Ростелеком" на преимущественное использование отечественного программного обеспечения, в том числе офисного программного обеспечения, на период 2019-2021 годы*</t>
   </si>
@@ -6347,9 +6488,6 @@
   </si>
   <si>
     <t>Вкл. В реестр</t>
-  </si>
-  <si>
-    <t>№ В реестре</t>
   </si>
   <si>
     <t>1Password</t>
@@ -8442,6 +8580,15 @@
   </si>
   <si>
     <t>Значение целевого показателя</t>
+  </si>
+  <si>
+    <t>Ссылка на реестр</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>РФ</t>
   </si>
 </sst>
 </file>
@@ -9833,6 +9980,15 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9850,15 +10006,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -10329,7 +10476,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Список альтернативного ПО" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Проект, в котором будет использоваться ПО" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Вкл. В реестр" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="№ В реестре" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ссылка на реестр" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10635,7 +10782,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:W449"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10718,7 +10867,7 @@
         <v>578</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T1" s="36" t="s">
         <v>582</v>
@@ -10794,10 +10943,10 @@
         <v>167</v>
       </c>
       <c r="B3" s="91" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C3" s="92" t="s">
         <v>2273</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>2274</v>
       </c>
       <c r="D3" s="92" t="s">
         <v>160</v>
@@ -10821,10 +10970,10 @@
         <v>169</v>
       </c>
       <c r="K3" s="92" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L3" s="92" t="s">
         <v>2275</v>
-      </c>
-      <c r="L3" s="92" t="s">
-        <v>2276</v>
       </c>
       <c r="M3" s="92" t="s">
         <v>171</v>
@@ -10839,7 +10988,7 @@
         <v>168</v>
       </c>
       <c r="Q3" s="92" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="R3" s="92" t="s">
         <v>170</v>
@@ -10857,12 +11006,14 @@
     <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="95" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D4" s="96"/>
+        <v>2609</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>1988</v>
+      </c>
       <c r="E4" s="97" t="e">
         <f>VLOOKUP(D4,#REF!,2,)</f>
         <v>#REF!</v>
@@ -33605,7 +33756,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A152" s="46" t="s">
         <v>977</v>
       </c>
@@ -35171,7 +35322,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A206" s="46" t="s">
         <v>977</v>
       </c>
@@ -41147,8 +41298,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41161,36 +41312,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
     </row>
     <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="213" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="217" t="s">
-        <v>2628</v>
+      <c r="E2" s="211" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="217"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="211"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -41238,10 +41389,10 @@
       <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="216"/>
+      <c r="D7" s="210"/>
     </row>
     <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -41584,10 +41735,10 @@
       <c r="B28" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="C28" s="215" t="s">
+      <c r="C28" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="216"/>
+      <c r="D28" s="210"/>
       <c r="E28" s="1">
         <v>0</v>
       </c>
@@ -42421,7 +42572,7 @@
   <dimension ref="A1:Z280"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -42467,7 +42618,7 @@
         <v>1987</v>
       </c>
       <c r="J1" s="111" t="s">
-        <v>1988</v>
+        <v>2628</v>
       </c>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
@@ -42475,22 +42626,22 @@
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="186" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>1989</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>1990</v>
       </c>
       <c r="C2" s="115" t="s">
         <v>279</v>
       </c>
       <c r="D2" s="116" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>1991</v>
       </c>
-      <c r="E2" s="113" t="s">
-        <v>1992</v>
-      </c>
       <c r="F2" s="117" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G2" s="113"/>
       <c r="H2" s="186"/>
@@ -42499,7 +42650,7 @@
       </c>
       <c r="J2" s="201"/>
       <c r="K2" s="204" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L2" s="204">
         <v>100</v>
@@ -42510,22 +42661,22 @@
     </row>
     <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="122" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B3" s="120" t="s">
         <v>1994</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>1995</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>260</v>
       </c>
       <c r="D3" s="73" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E3" s="122" t="s">
         <v>1996</v>
       </c>
-      <c r="E3" s="122" t="s">
-        <v>1997</v>
-      </c>
       <c r="F3" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G3" s="122" t="s">
         <v>425</v>
@@ -42538,7 +42689,7 @@
       </c>
       <c r="J3" s="201"/>
       <c r="K3" s="204" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L3" s="204">
         <v>100</v>
@@ -42562,20 +42713,20 @@
     </row>
     <row r="4" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="122" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C4" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D4" s="118" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E4" s="118"/>
       <c r="F4" s="118" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G4" s="118"/>
       <c r="H4" s="122"/>
@@ -42584,7 +42735,7 @@
       </c>
       <c r="J4" s="201"/>
       <c r="K4" s="204" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L4" s="204">
         <v>70</v>
@@ -42608,22 +42759,22 @@
     </row>
     <row r="5" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="122" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B5" s="125" t="s">
         <v>2000</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="C5" s="118" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D5" s="118" t="s">
         <v>2001</v>
       </c>
-      <c r="C5" s="118" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D5" s="118" t="s">
+      <c r="E5" s="118" t="s">
         <v>2002</v>
       </c>
-      <c r="E5" s="118" t="s">
-        <v>2003</v>
-      </c>
       <c r="F5" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G5" s="118"/>
       <c r="H5" s="122"/>
@@ -42632,7 +42783,7 @@
       </c>
       <c r="J5" s="201"/>
       <c r="K5" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L5" s="204"/>
       <c r="M5" s="204">
@@ -42669,7 +42820,7 @@
         <v>332</v>
       </c>
       <c r="F6" s="171" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>335</v>
@@ -42682,7 +42833,7 @@
       </c>
       <c r="J6" s="201"/>
       <c r="K6" s="204" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L6" s="204">
         <v>70</v>
@@ -42721,7 +42872,7 @@
         <v>332</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G7" s="129" t="s">
         <v>335</v>
@@ -42734,7 +42885,7 @@
       </c>
       <c r="J7" s="201"/>
       <c r="K7" s="204" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L7" s="204">
         <v>70</v>
@@ -42773,7 +42924,7 @@
         <v>332</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G8" s="129" t="s">
         <v>335</v>
@@ -42786,7 +42937,7 @@
       </c>
       <c r="J8" s="201"/>
       <c r="K8" s="206" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L8" s="206">
         <v>70</v>
@@ -42812,7 +42963,7 @@
         <v>332</v>
       </c>
       <c r="F9" s="171" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G9" s="129" t="s">
         <v>335</v>
@@ -42825,7 +42976,7 @@
       </c>
       <c r="J9" s="201"/>
       <c r="K9" s="206" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L9" s="206">
         <v>70</v>
@@ -42851,7 +43002,7 @@
         <v>349</v>
       </c>
       <c r="F10" s="123" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G10" s="123" t="s">
         <v>365</v>
@@ -42864,10 +43015,10 @@
       </c>
       <c r="J10" s="201"/>
       <c r="K10" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L10" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M10" s="204">
         <v>95</v>
@@ -42875,35 +43026,35 @@
     </row>
     <row r="11" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="176" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B11" s="128" t="s">
         <v>2445</v>
-      </c>
-      <c r="B11" s="128" t="s">
-        <v>2446</v>
       </c>
       <c r="C11" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E11" s="123" t="s">
         <v>509</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G11" s="123" t="s">
         <v>511</v>
       </c>
       <c r="H11" s="172"/>
       <c r="I11" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J11" s="201" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="K11" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L11" s="204"/>
       <c r="M11" s="204">
@@ -42912,22 +43063,22 @@
     </row>
     <row r="12" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="122" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C12" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D12" s="118" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E12" s="118" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="F12" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G12" s="118"/>
       <c r="H12" s="122"/>
@@ -42936,7 +43087,7 @@
       </c>
       <c r="J12" s="201"/>
       <c r="K12" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L12" s="204"/>
       <c r="M12" s="204">
@@ -42958,22 +43109,22 @@
     </row>
     <row r="13" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="122" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="125" t="s">
         <v>2006</v>
-      </c>
-      <c r="B13" s="125" t="s">
-        <v>2007</v>
       </c>
       <c r="C13" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D13" s="118" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E13" s="118" t="s">
         <v>2008</v>
       </c>
-      <c r="E13" s="118" t="s">
-        <v>2009</v>
-      </c>
       <c r="F13" s="118" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G13" s="118"/>
       <c r="H13" s="122"/>
@@ -42982,7 +43133,7 @@
       </c>
       <c r="J13" s="201"/>
       <c r="K13" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L13" s="204">
         <v>70</v>
@@ -43006,35 +43157,35 @@
     </row>
     <row r="14" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="122" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C14" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D14" s="118" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E14" s="118" t="s">
         <v>2011</v>
       </c>
-      <c r="E14" s="118" t="s">
-        <v>2012</v>
-      </c>
       <c r="F14" s="118" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="G14" s="118" t="s">
         <v>425</v>
       </c>
       <c r="H14" s="122"/>
       <c r="I14" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J14" s="201" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="K14" s="204" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L14" s="204">
         <v>100</v>
@@ -43058,7 +43209,7 @@
     </row>
     <row r="15" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="122" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B15" s="125" t="s">
         <v>275</v>
@@ -43073,7 +43224,7 @@
         <v>344</v>
       </c>
       <c r="F15" s="171" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G15" s="118" t="s">
         <v>365</v>
@@ -43086,10 +43237,10 @@
       </c>
       <c r="J15" s="201"/>
       <c r="K15" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L15" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M15" s="204">
         <v>95</v>
@@ -43110,22 +43261,22 @@
     </row>
     <row r="16" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="122" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="125" t="s">
         <v>2014</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>2015</v>
       </c>
       <c r="C16" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D16" s="118" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="118" t="s">
         <v>2016</v>
       </c>
-      <c r="E16" s="118" t="s">
-        <v>2017</v>
-      </c>
       <c r="F16" s="118" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G16" s="118"/>
       <c r="H16" s="122"/>
@@ -43134,7 +43285,7 @@
       </c>
       <c r="J16" s="201"/>
       <c r="K16" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L16" s="204">
         <v>70</v>
@@ -43158,22 +43309,22 @@
     </row>
     <row r="17" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="122" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C17" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D17" s="118" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="118" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F17" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G17" s="118"/>
       <c r="H17" s="122"/>
@@ -43182,7 +43333,7 @@
       </c>
       <c r="J17" s="201"/>
       <c r="K17" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L17" s="204"/>
       <c r="M17" s="204">
@@ -43216,10 +43367,10 @@
         <v>324</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F18" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G18" s="118"/>
       <c r="H18" s="122" t="s">
@@ -43230,7 +43381,7 @@
       </c>
       <c r="J18" s="201"/>
       <c r="K18" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L18" s="204">
         <v>80</v>
@@ -43269,7 +43420,7 @@
         <v>408</v>
       </c>
       <c r="F19" s="172" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G19" s="123" t="s">
         <v>410</v>
@@ -43282,7 +43433,7 @@
       </c>
       <c r="J19" s="201"/>
       <c r="K19" s="206" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L19" s="204">
         <v>70</v>
@@ -43308,7 +43459,7 @@
         <v>395</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G20" s="127"/>
       <c r="H20" s="176" t="s">
@@ -43319,7 +43470,7 @@
       </c>
       <c r="J20" s="201"/>
       <c r="K20" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L20" s="206">
         <v>80</v>
@@ -43345,7 +43496,7 @@
         <v>418</v>
       </c>
       <c r="F21" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G21" s="123"/>
       <c r="H21" s="172"/>
@@ -43354,7 +43505,7 @@
       </c>
       <c r="J21" s="201"/>
       <c r="K21" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L21" s="204"/>
       <c r="M21" s="204">
@@ -43378,7 +43529,7 @@
         <v>396</v>
       </c>
       <c r="F22" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G22" s="123"/>
       <c r="H22" s="172" t="s">
@@ -43389,7 +43540,7 @@
       </c>
       <c r="J22" s="201"/>
       <c r="K22" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L22" s="204">
         <v>80</v>
@@ -43415,7 +43566,7 @@
         <v>439</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G23" s="123" t="s">
         <v>442</v>
@@ -43428,7 +43579,7 @@
       </c>
       <c r="J23" s="201"/>
       <c r="K23" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L23" s="204"/>
       <c r="M23" s="204">
@@ -43449,10 +43600,10 @@
         <v>343</v>
       </c>
       <c r="E24" s="123" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F24" s="172" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G24" s="123" t="s">
         <v>341</v>
@@ -43465,7 +43616,7 @@
       </c>
       <c r="J24" s="201"/>
       <c r="K24" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L24" s="204">
         <v>100</v>
@@ -43491,7 +43642,7 @@
         <v>338</v>
       </c>
       <c r="F25" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G25" s="127" t="s">
         <v>341</v>
@@ -43504,7 +43655,7 @@
       </c>
       <c r="J25" s="201"/>
       <c r="K25" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L25" s="204">
         <v>100</v>
@@ -43530,7 +43681,7 @@
         <v>339</v>
       </c>
       <c r="F26" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G26" s="127" t="s">
         <v>341</v>
@@ -43543,7 +43694,7 @@
       </c>
       <c r="J26" s="201"/>
       <c r="K26" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L26" s="204">
         <v>100</v>
@@ -43569,7 +43720,7 @@
         <v>340</v>
       </c>
       <c r="F27" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G27" s="127" t="s">
         <v>341</v>
@@ -43582,7 +43733,7 @@
       </c>
       <c r="J27" s="201"/>
       <c r="K27" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L27" s="204">
         <v>100</v>
@@ -43608,7 +43759,7 @@
         <v>350</v>
       </c>
       <c r="F28" s="123" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G28" s="127" t="s">
         <v>365</v>
@@ -43621,10 +43772,10 @@
       </c>
       <c r="J28" s="201"/>
       <c r="K28" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L28" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M28" s="204">
         <v>95</v>
@@ -43647,7 +43798,7 @@
         <v>367</v>
       </c>
       <c r="F29" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G29" s="123"/>
       <c r="H29" s="195"/>
@@ -43656,7 +43807,7 @@
       </c>
       <c r="J29" s="201"/>
       <c r="K29" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L29" s="204">
         <v>100</v>
@@ -43682,7 +43833,7 @@
         <v>397</v>
       </c>
       <c r="F30" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G30" s="123"/>
       <c r="H30" s="172" t="s">
@@ -43693,7 +43844,7 @@
       </c>
       <c r="J30" s="201"/>
       <c r="K30" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L30" s="204">
         <v>80</v>
@@ -43719,7 +43870,7 @@
         <v>490</v>
       </c>
       <c r="F31" s="123" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="G31" s="123" t="s">
         <v>434</v>
@@ -43730,7 +43881,7 @@
       </c>
       <c r="J31" s="201"/>
       <c r="K31" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L31" s="204">
         <v>100</v>
@@ -43753,10 +43904,10 @@
         <v>324</v>
       </c>
       <c r="E32" s="123" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F32" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G32" s="123"/>
       <c r="H32" s="172" t="s">
@@ -43767,7 +43918,7 @@
       </c>
       <c r="J32" s="201"/>
       <c r="K32" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L32" s="206">
         <v>80</v>
@@ -43778,25 +43929,25 @@
     </row>
     <row r="33" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="182" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="77" t="s">
         <v>2020</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>2021</v>
       </c>
       <c r="C33" s="89" t="s">
         <v>270</v>
       </c>
       <c r="D33" s="76" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E33" s="123" t="s">
         <v>2022</v>
       </c>
-      <c r="E33" s="123" t="s">
+      <c r="F33" s="123" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G33" s="123" t="s">
         <v>2023</v>
-      </c>
-      <c r="F33" s="123" t="s">
-        <v>2294</v>
-      </c>
-      <c r="G33" s="123" t="s">
-        <v>2024</v>
       </c>
       <c r="H33" s="172"/>
       <c r="I33" s="129" t="s">
@@ -43804,7 +43955,7 @@
       </c>
       <c r="J33" s="201"/>
       <c r="K33" s="206" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L33" s="204">
         <v>100</v>
@@ -43830,7 +43981,7 @@
         <v>398</v>
       </c>
       <c r="F34" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G34" s="118"/>
       <c r="H34" s="122" t="s">
@@ -43841,7 +43992,7 @@
       </c>
       <c r="J34" s="201"/>
       <c r="K34" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L34" s="204">
         <v>80</v>
@@ -43865,35 +44016,35 @@
     </row>
     <row r="35" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="189" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="77" t="s">
         <v>2025</v>
-      </c>
-      <c r="B35" s="77" t="s">
-        <v>2026</v>
       </c>
       <c r="C35" s="89" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="76" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E35" s="123" t="s">
         <v>2027</v>
       </c>
-      <c r="E35" s="123" t="s">
+      <c r="F35" s="172" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G35" s="123" t="s">
+        <v>2248</v>
+      </c>
+      <c r="H35" s="172" t="s">
         <v>2028</v>
-      </c>
-      <c r="F35" s="172" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G35" s="123" t="s">
-        <v>2249</v>
-      </c>
-      <c r="H35" s="172" t="s">
-        <v>2029</v>
       </c>
       <c r="I35" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J35" s="201"/>
       <c r="K35" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L35" s="204"/>
       <c r="M35" s="204">
@@ -43917,7 +44068,7 @@
         <v>347</v>
       </c>
       <c r="F36" s="129" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G36" s="129" t="s">
         <v>365</v>
@@ -43930,10 +44081,10 @@
       </c>
       <c r="J36" s="201"/>
       <c r="K36" s="207" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L36" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M36" s="204">
         <v>95</v>
@@ -43969,7 +44120,7 @@
         <v>475</v>
       </c>
       <c r="F37" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G37" s="123" t="s">
         <v>428</v>
@@ -43980,7 +44131,7 @@
       </c>
       <c r="J37" s="201"/>
       <c r="K37" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L37" s="204"/>
       <c r="M37" s="204">
@@ -43989,22 +44140,22 @@
     </row>
     <row r="38" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="179" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B38" s="134" t="s">
         <v>2030</v>
-      </c>
-      <c r="B38" s="134" t="s">
-        <v>2031</v>
       </c>
       <c r="C38" s="133" t="s">
         <v>260</v>
       </c>
       <c r="D38" s="76" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E38" s="127" t="s">
         <v>2032</v>
       </c>
-      <c r="E38" s="127" t="s">
-        <v>2033</v>
-      </c>
       <c r="F38" s="123" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G38" s="123" t="s">
         <v>425</v>
@@ -44017,10 +44168,10 @@
       </c>
       <c r="J38" s="201"/>
       <c r="K38" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L38" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M38" s="204">
         <v>95</v>
@@ -44028,22 +44179,22 @@
     </row>
     <row r="39" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="122" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B39" s="125" t="s">
         <v>2034</v>
-      </c>
-      <c r="B39" s="125" t="s">
-        <v>2035</v>
       </c>
       <c r="C39" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D39" s="118" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E39" s="118" t="s">
         <v>2036</v>
       </c>
-      <c r="E39" s="118" t="s">
-        <v>2037</v>
-      </c>
       <c r="F39" s="118" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G39" s="118" t="s">
         <v>425</v>
@@ -44056,7 +44207,7 @@
       </c>
       <c r="J39" s="201"/>
       <c r="K39" s="204" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L39" s="204"/>
       <c r="M39" s="204">
@@ -44078,22 +44229,22 @@
     </row>
     <row r="40" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="122" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B40" s="125" t="s">
         <v>2038</v>
-      </c>
-      <c r="B40" s="125" t="s">
-        <v>2039</v>
       </c>
       <c r="C40" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D40" s="118" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E40" s="118" t="s">
         <v>2040</v>
       </c>
-      <c r="E40" s="118" t="s">
-        <v>2041</v>
-      </c>
       <c r="F40" s="123" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G40" s="118"/>
       <c r="H40" s="122"/>
@@ -44102,7 +44253,7 @@
       </c>
       <c r="J40" s="201"/>
       <c r="K40" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L40" s="204">
         <v>70</v>
@@ -44126,35 +44277,35 @@
     </row>
     <row r="41" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="122" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B41" s="125" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C41" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D41" s="118" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E41" s="118" t="s">
         <v>2043</v>
       </c>
-      <c r="E41" s="118" t="s">
-        <v>2044</v>
-      </c>
       <c r="F41" s="122" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G41" s="118" t="s">
         <v>425</v>
       </c>
       <c r="H41" s="122"/>
       <c r="I41" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J41" s="201" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="K41" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L41" s="204">
         <v>97</v>
@@ -44178,7 +44329,7 @@
     </row>
     <row r="42" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="122" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B42" s="125" t="s">
         <v>275</v>
@@ -44187,13 +44338,13 @@
         <v>276</v>
       </c>
       <c r="D42" s="118" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E42" s="118" t="s">
         <v>2046</v>
       </c>
-      <c r="E42" s="118" t="s">
-        <v>2047</v>
-      </c>
       <c r="F42" s="172" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G42" s="118"/>
       <c r="H42" s="122"/>
@@ -44202,10 +44353,10 @@
       </c>
       <c r="J42" s="201"/>
       <c r="K42" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L42" s="204" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M42" s="204">
         <v>95</v>
@@ -44241,7 +44392,7 @@
         <v>399</v>
       </c>
       <c r="F43" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G43" s="118"/>
       <c r="H43" s="122" t="s">
@@ -44252,7 +44403,7 @@
       </c>
       <c r="J43" s="201"/>
       <c r="K43" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L43" s="204">
         <v>80</v>
@@ -44291,7 +44442,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="172" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G44" s="123"/>
       <c r="H44" s="172" t="s">
@@ -44302,7 +44453,7 @@
       </c>
       <c r="J44" s="201"/>
       <c r="K44" s="206" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L44" s="204">
         <v>80</v>
@@ -44313,22 +44464,22 @@
     </row>
     <row r="45" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="189" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B45" s="77" t="s">
         <v>2048</v>
-      </c>
-      <c r="B45" s="77" t="s">
-        <v>2049</v>
       </c>
       <c r="C45" s="89" t="s">
         <v>260</v>
       </c>
       <c r="D45" s="76" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E45" s="123" t="s">
         <v>2050</v>
       </c>
-      <c r="E45" s="123" t="s">
-        <v>2051</v>
-      </c>
       <c r="F45" s="123" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G45" s="123" t="s">
         <v>425</v>
@@ -44341,7 +44492,7 @@
       </c>
       <c r="J45" s="201"/>
       <c r="K45" s="206" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L45" s="204"/>
       <c r="M45" s="204">
@@ -44353,7 +44504,7 @@
         <v>202</v>
       </c>
       <c r="B46" s="121" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C46" s="121" t="s">
         <v>270</v>
@@ -44365,7 +44516,7 @@
         <v>424</v>
       </c>
       <c r="F46" s="123" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G46" s="122" t="s">
         <v>425</v>
@@ -44374,13 +44525,13 @@
         <v>426</v>
       </c>
       <c r="I46" s="122" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J46" s="201" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="K46" s="204" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L46" s="204">
         <v>60</v>
@@ -44404,18 +44555,18 @@
     </row>
     <row r="47" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="176" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B47" s="128"/>
       <c r="C47" s="127" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D47" s="76"/>
       <c r="E47" s="123" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F47" s="172" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G47" s="123"/>
       <c r="H47" s="172"/>
@@ -44424,7 +44575,7 @@
       </c>
       <c r="J47" s="202"/>
       <c r="K47" s="206" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L47" s="206">
         <v>100</v>
@@ -44435,31 +44586,31 @@
     </row>
     <row r="48" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="122" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B48" s="125" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C48" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D48" s="118"/>
       <c r="E48" s="118" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F48" s="118" t="s">
         <v>2298</v>
-      </c>
-      <c r="F48" s="118" t="s">
-        <v>2299</v>
       </c>
       <c r="G48" s="118"/>
       <c r="H48" s="122"/>
       <c r="I48" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J48" s="201" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="K48" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L48" s="204">
         <v>40</v>
@@ -44483,22 +44634,22 @@
     </row>
     <row r="49" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="122" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B49" s="128" t="s">
         <v>2054</v>
       </c>
-      <c r="B49" s="128" t="s">
+      <c r="C49" s="118" t="s">
         <v>2055</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="D49" s="118" t="s">
         <v>2056</v>
       </c>
-      <c r="D49" s="118" t="s">
+      <c r="E49" s="118" t="s">
         <v>2057</v>
       </c>
-      <c r="E49" s="118" t="s">
-        <v>2058</v>
-      </c>
       <c r="F49" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G49" s="118" t="s">
         <v>425</v>
@@ -44511,7 +44662,7 @@
       </c>
       <c r="J49" s="201"/>
       <c r="K49" s="204" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L49" s="204"/>
       <c r="M49" s="204">
@@ -44548,7 +44699,7 @@
         <v>543</v>
       </c>
       <c r="F50" s="122" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G50" s="122"/>
       <c r="H50" s="122"/>
@@ -44575,7 +44726,7 @@
     </row>
     <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="176" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B51" s="134" t="s">
         <v>281</v>
@@ -44585,10 +44736,10 @@
       </c>
       <c r="D51" s="76"/>
       <c r="E51" s="127" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F51" s="123" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="G51" s="123"/>
       <c r="H51" s="172"/>
@@ -44597,7 +44748,7 @@
       </c>
       <c r="J51" s="118"/>
       <c r="K51" s="203" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L51" s="119">
         <v>100</v>
@@ -44636,10 +44787,10 @@
         <v>412</v>
       </c>
       <c r="F52" s="173" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G52" s="118" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="H52" s="122" t="s">
         <v>413</v>
@@ -44649,7 +44800,7 @@
       </c>
       <c r="J52" s="118"/>
       <c r="K52" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L52" s="118">
         <v>60</v>
@@ -44675,7 +44826,7 @@
         <v>381</v>
       </c>
       <c r="F53" s="172" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G53" s="123" t="s">
         <v>383</v>
@@ -44688,7 +44839,7 @@
       </c>
       <c r="J53" s="118"/>
       <c r="K53" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L53" s="130">
         <v>60</v>
@@ -44714,7 +44865,7 @@
         <v>381</v>
       </c>
       <c r="F54" s="172" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G54" s="123" t="s">
         <v>383</v>
@@ -44727,7 +44878,7 @@
       </c>
       <c r="J54" s="118"/>
       <c r="K54" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L54" s="118">
         <v>60</v>
@@ -44753,7 +44904,7 @@
         <v>348</v>
       </c>
       <c r="F55" s="172" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G55" s="123" t="s">
         <v>365</v>
@@ -44766,10 +44917,10 @@
       </c>
       <c r="J55" s="118"/>
       <c r="K55" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L55" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M55" s="118">
         <v>95</v>
@@ -44792,7 +44943,7 @@
         <v>429</v>
       </c>
       <c r="F56" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G56" s="123" t="s">
         <v>431</v>
@@ -44805,7 +44956,7 @@
       </c>
       <c r="J56" s="118"/>
       <c r="K56" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L56" s="118"/>
       <c r="M56" s="118">
@@ -44814,22 +44965,22 @@
     </row>
     <row r="57" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="176" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B57" s="128" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C57" s="127" t="s">
         <v>2061</v>
       </c>
-      <c r="B57" s="128" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C57" s="127" t="s">
+      <c r="D57" s="81" t="s">
         <v>2062</v>
       </c>
-      <c r="D57" s="81" t="s">
+      <c r="E57" s="123" t="s">
         <v>2063</v>
       </c>
-      <c r="E57" s="123" t="s">
-        <v>2064</v>
-      </c>
       <c r="F57" s="123" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G57" s="123"/>
       <c r="H57" s="172"/>
@@ -44838,7 +44989,7 @@
       </c>
       <c r="J57" s="118"/>
       <c r="K57" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L57" s="118">
         <v>40</v>
@@ -44864,7 +45015,7 @@
         <v>376</v>
       </c>
       <c r="F58" s="122" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G58" s="118" t="s">
         <v>365</v>
@@ -44877,10 +45028,10 @@
       </c>
       <c r="J58" s="118"/>
       <c r="K58" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L58" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M58" s="118">
         <v>95</v>
@@ -44901,22 +45052,22 @@
     </row>
     <row r="59" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="176" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B59" s="128" t="s">
         <v>2065</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="C59" s="133" t="s">
         <v>2066</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="D59" s="76" t="s">
         <v>2067</v>
       </c>
-      <c r="D59" s="76" t="s">
-        <v>2068</v>
-      </c>
       <c r="E59" s="123" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F59" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G59" s="123" t="s">
         <v>425</v>
@@ -44929,7 +45080,7 @@
       </c>
       <c r="J59" s="118"/>
       <c r="K59" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L59" s="118"/>
       <c r="M59" s="118">
@@ -44953,7 +45104,7 @@
         <v>522</v>
       </c>
       <c r="F60" s="122" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="G60" s="122" t="s">
         <v>425</v>
@@ -44964,7 +45115,7 @@
       </c>
       <c r="J60" s="118"/>
       <c r="K60" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L60" s="118">
         <v>75</v>
@@ -44988,22 +45139,22 @@
     </row>
     <row r="61" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="176" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B61" s="128" t="s">
         <v>2069</v>
-      </c>
-      <c r="B61" s="128" t="s">
-        <v>2070</v>
       </c>
       <c r="C61" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D61" s="76" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E61" s="127" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F61" s="172" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G61" s="123"/>
       <c r="H61" s="172"/>
@@ -45012,7 +45163,7 @@
       </c>
       <c r="J61" s="118"/>
       <c r="K61" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L61" s="130">
         <v>70</v>
@@ -45038,7 +45189,7 @@
         <v>394</v>
       </c>
       <c r="F62" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G62" s="118"/>
       <c r="H62" s="122" t="s">
@@ -45049,7 +45200,7 @@
       </c>
       <c r="J62" s="118"/>
       <c r="K62" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L62" s="118">
         <v>80</v>
@@ -45073,35 +45224,35 @@
     </row>
     <row r="63" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="177" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B63" s="134" t="s">
         <v>2072</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="C63" s="133" t="s">
         <v>2073</v>
       </c>
-      <c r="C63" s="133" t="s">
+      <c r="D63" s="75" t="s">
         <v>2074</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="E63" s="127" t="s">
         <v>2075</v>
       </c>
-      <c r="E63" s="127" t="s">
-        <v>2076</v>
-      </c>
       <c r="F63" s="171" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G63" s="123" t="s">
         <v>414</v>
       </c>
       <c r="H63" s="176" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="I63" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J63" s="130"/>
       <c r="K63" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L63" s="118">
         <v>40</v>
@@ -45115,7 +45266,7 @@
         <v>498</v>
       </c>
       <c r="B64" s="77" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C64" s="89" t="s">
         <v>270</v>
@@ -45127,7 +45278,7 @@
         <v>502</v>
       </c>
       <c r="F64" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G64" s="123" t="s">
         <v>425</v>
@@ -45136,13 +45287,13 @@
         <v>500</v>
       </c>
       <c r="I64" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J64" s="118" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="K64" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L64" s="118">
         <v>100</v>
@@ -45156,7 +45307,7 @@
         <v>251</v>
       </c>
       <c r="B65" s="125" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C65" s="118" t="s">
         <v>270</v>
@@ -45168,7 +45319,7 @@
         <v>251</v>
       </c>
       <c r="F65" s="118" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="G65" s="118" t="s">
         <v>425</v>
@@ -45177,13 +45328,13 @@
         <v>500</v>
       </c>
       <c r="I65" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J65" s="118" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="K65" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L65" s="118">
         <v>100</v>
@@ -45222,7 +45373,7 @@
         <v>481</v>
       </c>
       <c r="F66" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G66" s="123" t="s">
         <v>414</v>
@@ -45235,7 +45386,7 @@
       </c>
       <c r="J66" s="130"/>
       <c r="K66" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L66" s="130">
         <v>100</v>
@@ -45246,35 +45397,35 @@
     </row>
     <row r="67" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="179" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B67" s="138" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C67" s="137" t="s">
         <v>270</v>
       </c>
       <c r="D67" s="76" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E67" s="127" t="s">
         <v>2079</v>
       </c>
-      <c r="E67" s="127" t="s">
-        <v>2080</v>
-      </c>
       <c r="F67" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G67" s="123" t="s">
         <v>425</v>
       </c>
       <c r="H67" s="172"/>
       <c r="I67" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J67" s="130" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="K67" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L67" s="132">
         <v>40</v>
@@ -45285,22 +45436,22 @@
     </row>
     <row r="68" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="176" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B68" s="128" t="s">
         <v>2081</v>
-      </c>
-      <c r="B68" s="128" t="s">
-        <v>2082</v>
       </c>
       <c r="C68" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D68" s="76" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E68" s="127" t="s">
         <v>2083</v>
       </c>
-      <c r="E68" s="127" t="s">
-        <v>2084</v>
-      </c>
       <c r="F68" s="123" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G68" s="123"/>
       <c r="H68" s="172"/>
@@ -45309,10 +45460,10 @@
       </c>
       <c r="J68" s="118"/>
       <c r="K68" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L68" s="130" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M68" s="122">
         <v>100</v>
@@ -45320,22 +45471,22 @@
     </row>
     <row r="69" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="122" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B69" s="125" t="s">
         <v>2085</v>
-      </c>
-      <c r="B69" s="125" t="s">
-        <v>2086</v>
       </c>
       <c r="C69" s="118" t="s">
         <v>290</v>
       </c>
       <c r="D69" s="118" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E69" s="118" t="s">
         <v>2087</v>
       </c>
-      <c r="E69" s="118" t="s">
-        <v>2088</v>
-      </c>
       <c r="F69" s="118" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G69" s="118"/>
       <c r="H69" s="122"/>
@@ -45344,7 +45495,7 @@
       </c>
       <c r="J69" s="118"/>
       <c r="K69" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L69" s="118"/>
       <c r="M69" s="118">
@@ -45381,7 +45532,7 @@
         <v>448</v>
       </c>
       <c r="F70" s="118" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G70" s="118" t="s">
         <v>449</v>
@@ -45394,7 +45545,7 @@
       </c>
       <c r="J70" s="118"/>
       <c r="K70" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L70" s="118"/>
       <c r="M70" s="118">
@@ -45431,7 +45582,7 @@
         <v>401</v>
       </c>
       <c r="F71" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G71" s="118"/>
       <c r="H71" s="122" t="s">
@@ -45442,7 +45593,7 @@
       </c>
       <c r="J71" s="118"/>
       <c r="K71" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L71" s="118">
         <v>80</v>
@@ -45466,22 +45617,22 @@
     </row>
     <row r="72" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="176" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B72" s="128" t="s">
         <v>2089</v>
-      </c>
-      <c r="B72" s="128" t="s">
-        <v>2090</v>
       </c>
       <c r="C72" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D72" s="81" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E72" s="127" t="s">
         <v>2091</v>
       </c>
-      <c r="E72" s="127" t="s">
-        <v>2092</v>
-      </c>
       <c r="F72" s="172" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G72" s="123"/>
       <c r="H72" s="172"/>
@@ -45490,7 +45641,7 @@
       </c>
       <c r="J72" s="118"/>
       <c r="K72" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L72" s="130"/>
       <c r="M72" s="118">
@@ -45499,18 +45650,18 @@
     </row>
     <row r="73" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="182" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B73" s="77"/>
       <c r="C73" s="89" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D73" s="76"/>
       <c r="E73" s="127" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F73" s="172" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G73" s="123"/>
       <c r="H73" s="172"/>
@@ -45519,7 +45670,7 @@
       </c>
       <c r="J73" s="118"/>
       <c r="K73" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L73" s="118"/>
       <c r="M73" s="118">
@@ -45543,7 +45694,7 @@
         <v>483</v>
       </c>
       <c r="F74" s="118" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G74" s="118"/>
       <c r="H74" s="122"/>
@@ -45552,7 +45703,7 @@
       </c>
       <c r="J74" s="118"/>
       <c r="K74" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L74" s="118">
         <v>100</v>
@@ -45576,22 +45727,22 @@
     </row>
     <row r="75" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="122" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B75" s="125" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C75" s="118" t="s">
         <v>2095</v>
       </c>
-      <c r="B75" s="125" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C75" s="118" t="s">
+      <c r="D75" s="118" t="s">
         <v>2096</v>
       </c>
-      <c r="D75" s="118" t="s">
+      <c r="E75" s="118" t="s">
         <v>2097</v>
       </c>
-      <c r="E75" s="118" t="s">
-        <v>2098</v>
-      </c>
       <c r="F75" s="123" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G75" s="118"/>
       <c r="H75" s="122"/>
@@ -45600,7 +45751,7 @@
       </c>
       <c r="J75" s="118"/>
       <c r="K75" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L75" s="118">
         <v>70</v>
@@ -45624,7 +45775,7 @@
     </row>
     <row r="76" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="176" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B76" s="128" t="s">
         <v>281</v>
@@ -45633,13 +45784,13 @@
         <v>260</v>
       </c>
       <c r="D76" s="76" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E76" s="127" t="s">
         <v>2100</v>
       </c>
-      <c r="E76" s="127" t="s">
-        <v>2101</v>
-      </c>
       <c r="F76" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G76" s="123"/>
       <c r="H76" s="172"/>
@@ -45648,7 +45799,7 @@
       </c>
       <c r="J76" s="118"/>
       <c r="K76" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L76" s="130">
         <v>100</v>
@@ -45674,10 +45825,10 @@
         <v>524</v>
       </c>
       <c r="F77" s="118" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G77" s="118" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="H77" s="122" t="s">
         <v>500</v>
@@ -45687,7 +45838,7 @@
       </c>
       <c r="J77" s="118"/>
       <c r="K77" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L77" s="118">
         <v>100</v>
@@ -45711,7 +45862,7 @@
     </row>
     <row r="78" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="122" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B78" s="90" t="s">
         <v>281</v>
@@ -45726,7 +45877,7 @@
         <v>472</v>
       </c>
       <c r="F78" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G78" s="118" t="s">
         <v>473</v>
@@ -45739,7 +45890,7 @@
       </c>
       <c r="J78" s="118"/>
       <c r="K78" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L78" s="132">
         <v>100</v>
@@ -45778,10 +45929,10 @@
         <v>472</v>
       </c>
       <c r="F79" s="172" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G79" s="123" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="H79" s="172" t="s">
         <v>432</v>
@@ -45791,10 +45942,10 @@
       </c>
       <c r="J79" s="118"/>
       <c r="K79" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L79" s="130" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M79" s="122">
         <v>95</v>
@@ -45817,7 +45968,7 @@
         <v>389</v>
       </c>
       <c r="F80" s="172" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G80" s="123" t="s">
         <v>392</v>
@@ -45830,7 +45981,7 @@
       </c>
       <c r="J80" s="118"/>
       <c r="K80" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L80" s="118">
         <v>80</v>
@@ -45866,10 +46017,10 @@
         <v>474</v>
       </c>
       <c r="E81" s="127" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F81" s="123" t="s">
         <v>2302</v>
-      </c>
-      <c r="F81" s="123" t="s">
-        <v>2303</v>
       </c>
       <c r="G81" s="123" t="s">
         <v>414</v>
@@ -45882,10 +46033,10 @@
       </c>
       <c r="J81" s="118"/>
       <c r="K81" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L81" s="118" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M81" s="118">
         <v>90</v>
@@ -45893,22 +46044,22 @@
     </row>
     <row r="82" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="176" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B82" s="128" t="s">
         <v>2104</v>
-      </c>
-      <c r="B82" s="128" t="s">
-        <v>2105</v>
       </c>
       <c r="C82" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D82" s="76" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E82" s="127" t="s">
         <v>2106</v>
       </c>
-      <c r="E82" s="127" t="s">
-        <v>2107</v>
-      </c>
       <c r="F82" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G82" s="129"/>
       <c r="H82" s="171"/>
@@ -45917,7 +46068,7 @@
       </c>
       <c r="J82" s="118"/>
       <c r="K82" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L82" s="118">
         <v>100</v>
@@ -45943,7 +46094,7 @@
         <v>452</v>
       </c>
       <c r="F83" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G83" s="127" t="s">
         <v>454</v>
@@ -45956,7 +46107,7 @@
       </c>
       <c r="J83" s="118"/>
       <c r="K83" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L83" s="130">
         <v>40</v>
@@ -45967,22 +46118,22 @@
     </row>
     <row r="84" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="122" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B84" s="125" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C84" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D84" s="118" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E84" s="118" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F84" s="118" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G84" s="118" t="s">
         <v>425</v>
@@ -45992,10 +46143,10 @@
         <v>414</v>
       </c>
       <c r="J84" s="118" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="K84" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L84" s="118">
         <v>70</v>
@@ -46019,22 +46170,22 @@
     </row>
     <row r="85" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="176" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B85" s="128" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C85" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D85" s="81" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E85" s="127" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="F85" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G85" s="123" t="s">
         <v>425</v>
@@ -46044,10 +46195,10 @@
         <v>414</v>
       </c>
       <c r="J85" s="118" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="K85" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L85" s="130">
         <v>70</v>
@@ -46058,22 +46209,22 @@
     </row>
     <row r="86" spans="1:26" s="126" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="176" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B86" s="125" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C86" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D86" s="86" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E86" s="118" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="F86" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G86" s="123" t="s">
         <v>425</v>
@@ -46083,10 +46234,10 @@
         <v>414</v>
       </c>
       <c r="J86" s="118" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="K86" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L86" s="118">
         <v>70</v>
@@ -46110,22 +46261,22 @@
     </row>
     <row r="87" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="176" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B87" s="125" t="s">
         <v>2108</v>
-      </c>
-      <c r="B87" s="125" t="s">
-        <v>2109</v>
       </c>
       <c r="C87" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D87" s="84" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E87" s="118" t="s">
         <v>2110</v>
       </c>
-      <c r="E87" s="118" t="s">
-        <v>2111</v>
-      </c>
       <c r="F87" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G87" s="123" t="s">
         <v>425</v>
@@ -46135,10 +46286,10 @@
         <v>414</v>
       </c>
       <c r="J87" s="118" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="K87" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L87" s="118">
         <v>70</v>
@@ -46162,7 +46313,7 @@
     </row>
     <row r="88" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="176" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B88" s="125" t="s">
         <v>281</v>
@@ -46171,13 +46322,13 @@
         <v>260</v>
       </c>
       <c r="D88" s="84" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E88" s="118" t="s">
         <v>2113</v>
       </c>
-      <c r="E88" s="118" t="s">
-        <v>2114</v>
-      </c>
       <c r="F88" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G88" s="123" t="s">
         <v>425</v>
@@ -46190,7 +46341,7 @@
       </c>
       <c r="J88" s="118"/>
       <c r="K88" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L88" s="118">
         <v>80</v>
@@ -46214,22 +46365,22 @@
     </row>
     <row r="89" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="176" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B89" s="125" t="s">
         <v>2259</v>
-      </c>
-      <c r="B89" s="125" t="s">
-        <v>2260</v>
       </c>
       <c r="C89" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D89" s="118" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E89" s="118" t="s">
         <v>542</v>
       </c>
       <c r="F89" s="118" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="G89" s="118" t="s">
         <v>425</v>
@@ -46238,13 +46389,13 @@
         <v>393</v>
       </c>
       <c r="I89" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J89" s="118" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="K89" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L89" s="118">
         <v>100</v>
@@ -46268,22 +46419,22 @@
     </row>
     <row r="90" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="180" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B90" s="90" t="s">
         <v>2115</v>
-      </c>
-      <c r="B90" s="90" t="s">
-        <v>2116</v>
       </c>
       <c r="C90" s="121" t="s">
         <v>260</v>
       </c>
       <c r="D90" s="83" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E90" s="122" t="s">
         <v>2117</v>
       </c>
-      <c r="E90" s="122" t="s">
-        <v>2118</v>
-      </c>
       <c r="F90" s="172" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G90" s="122"/>
       <c r="H90" s="122"/>
@@ -46292,7 +46443,7 @@
       </c>
       <c r="J90" s="118"/>
       <c r="K90" s="122" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L90" s="118">
         <v>70</v>
@@ -46316,22 +46467,22 @@
     </row>
     <row r="91" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="180" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B91" s="90" t="s">
         <v>2119</v>
       </c>
-      <c r="B91" s="90" t="s">
+      <c r="C91" s="121" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D91" s="88" t="s">
         <v>2120</v>
       </c>
-      <c r="C91" s="121" t="s">
-        <v>2458</v>
-      </c>
-      <c r="D91" s="88" t="s">
+      <c r="E91" s="122" t="s">
         <v>2121</v>
       </c>
-      <c r="E91" s="122" t="s">
-        <v>2122</v>
-      </c>
       <c r="F91" s="172" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G91" s="122"/>
       <c r="H91" s="122"/>
@@ -46340,7 +46491,7 @@
       </c>
       <c r="J91" s="122"/>
       <c r="K91" s="122" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L91" s="122">
         <v>40</v>
@@ -46364,22 +46515,22 @@
     </row>
     <row r="92" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="122" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B92" s="125" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C92" s="118" t="s">
         <v>283</v>
       </c>
       <c r="D92" s="118" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E92" s="118" t="s">
         <v>2305</v>
       </c>
-      <c r="E92" s="118" t="s">
-        <v>2306</v>
-      </c>
       <c r="F92" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G92" s="118"/>
       <c r="H92" s="122"/>
@@ -46388,7 +46539,7 @@
       </c>
       <c r="J92" s="118"/>
       <c r="K92" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L92" s="118">
         <v>40</v>
@@ -46412,22 +46563,22 @@
     </row>
     <row r="93" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="122" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B93" s="125" t="s">
         <v>2123</v>
-      </c>
-      <c r="B93" s="125" t="s">
-        <v>2124</v>
       </c>
       <c r="C93" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D93" s="118" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E93" s="118" t="s">
         <v>2125</v>
       </c>
-      <c r="E93" s="118" t="s">
-        <v>2126</v>
-      </c>
       <c r="F93" s="118" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G93" s="118" t="s">
         <v>425</v>
@@ -46440,10 +46591,10 @@
       </c>
       <c r="J93" s="118"/>
       <c r="K93" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L93" s="118" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M93" s="118">
         <v>90</v>
@@ -46479,10 +46630,10 @@
         <v>491</v>
       </c>
       <c r="F94" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G94" s="118" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="H94" s="122" t="s">
         <v>493</v>
@@ -46492,7 +46643,7 @@
       </c>
       <c r="J94" s="118"/>
       <c r="K94" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L94" s="118">
         <v>40</v>
@@ -46516,22 +46667,22 @@
     </row>
     <row r="95" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="122" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B95" s="125" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C95" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D95" s="118" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E95" s="118" t="s">
         <v>2128</v>
       </c>
-      <c r="E95" s="118" t="s">
-        <v>2129</v>
-      </c>
       <c r="F95" s="123" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G95" s="118"/>
       <c r="H95" s="122"/>
@@ -46540,7 +46691,7 @@
       </c>
       <c r="J95" s="118"/>
       <c r="K95" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L95" s="118">
         <v>60</v>
@@ -46564,22 +46715,22 @@
     </row>
     <row r="96" spans="1:26" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="191" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B96" s="134" t="s">
         <v>2130</v>
-      </c>
-      <c r="B96" s="134" t="s">
-        <v>2131</v>
       </c>
       <c r="C96" s="139" t="s">
         <v>274</v>
       </c>
       <c r="D96" s="140" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E96" s="127" t="s">
         <v>2132</v>
       </c>
-      <c r="E96" s="127" t="s">
-        <v>2133</v>
-      </c>
       <c r="F96" s="172" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G96" s="127"/>
       <c r="H96" s="176"/>
@@ -46588,10 +46739,10 @@
       </c>
       <c r="J96" s="118"/>
       <c r="K96" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L96" s="118" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M96" s="118">
         <v>90</v>
@@ -46627,7 +46778,7 @@
         <v>368</v>
       </c>
       <c r="F97" s="118" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="G97" s="118"/>
       <c r="H97" s="122"/>
@@ -46636,7 +46787,7 @@
       </c>
       <c r="J97" s="118"/>
       <c r="K97" s="118" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L97" s="118">
         <v>100</v>
@@ -46675,7 +46826,7 @@
         <v>368</v>
       </c>
       <c r="F98" s="118" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="G98" s="118"/>
       <c r="H98" s="122"/>
@@ -46684,7 +46835,7 @@
       </c>
       <c r="J98" s="118"/>
       <c r="K98" s="118" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L98" s="118">
         <v>100</v>
@@ -46723,7 +46874,7 @@
         <v>368</v>
       </c>
       <c r="F99" s="172" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="G99" s="123"/>
       <c r="H99" s="172"/>
@@ -46732,7 +46883,7 @@
       </c>
       <c r="J99" s="118"/>
       <c r="K99" s="118" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L99" s="118">
         <v>100</v>
@@ -46771,7 +46922,7 @@
         <v>345</v>
       </c>
       <c r="F100" s="172" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G100" s="123" t="s">
         <v>365</v>
@@ -46784,10 +46935,10 @@
       </c>
       <c r="J100" s="118"/>
       <c r="K100" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L100" s="130" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M100" s="118">
         <v>95</v>
@@ -46808,22 +46959,22 @@
     </row>
     <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="192" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B101" s="128" t="s">
         <v>2134</v>
       </c>
-      <c r="B101" s="128" t="s">
+      <c r="C101" s="127" t="s">
         <v>2135</v>
       </c>
-      <c r="C101" s="127" t="s">
+      <c r="D101" s="76" t="s">
         <v>2136</v>
       </c>
-      <c r="D101" s="76" t="s">
+      <c r="E101" s="127" t="s">
         <v>2137</v>
       </c>
-      <c r="E101" s="127" t="s">
-        <v>2138</v>
-      </c>
       <c r="F101" s="172" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="G101" s="123"/>
       <c r="H101" s="172"/>
@@ -46832,7 +46983,7 @@
       </c>
       <c r="J101" s="118"/>
       <c r="K101" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L101" s="130">
         <v>72</v>
@@ -46871,7 +47022,7 @@
         <v>378</v>
       </c>
       <c r="F102" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G102" s="123" t="s">
         <v>379</v>
@@ -46884,7 +47035,7 @@
       </c>
       <c r="J102" s="118"/>
       <c r="K102" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L102" s="118">
         <v>40</v>
@@ -46908,22 +47059,22 @@
     </row>
     <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="122" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B103" s="125" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C103" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D103" s="118" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E103" s="118" t="s">
         <v>2140</v>
       </c>
-      <c r="E103" s="118" t="s">
-        <v>2141</v>
-      </c>
       <c r="F103" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G103" s="118"/>
       <c r="H103" s="122"/>
@@ -46932,7 +47083,7 @@
       </c>
       <c r="J103" s="118"/>
       <c r="K103" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L103" s="118">
         <v>40</v>
@@ -46958,7 +47109,7 @@
         <v>455</v>
       </c>
       <c r="F104" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G104" s="141" t="s">
         <v>457</v>
@@ -46971,7 +47122,7 @@
       </c>
       <c r="J104" s="118"/>
       <c r="K104" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L104" s="130">
         <v>40</v>
@@ -47010,7 +47161,7 @@
         <v>385</v>
       </c>
       <c r="F105" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G105" s="118" t="s">
         <v>386</v>
@@ -47023,7 +47174,7 @@
       </c>
       <c r="J105" s="118"/>
       <c r="K105" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L105" s="118">
         <v>40</v>
@@ -47049,7 +47200,7 @@
         <v>459</v>
       </c>
       <c r="F106" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G106" s="123" t="s">
         <v>461</v>
@@ -47062,7 +47213,7 @@
       </c>
       <c r="J106" s="118"/>
       <c r="K106" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L106" s="130">
         <v>70</v>
@@ -47086,20 +47237,20 @@
     </row>
     <row r="107" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="176" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B107" s="128" t="s">
         <v>2142</v>
-      </c>
-      <c r="B107" s="128" t="s">
-        <v>2143</v>
       </c>
       <c r="C107" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D107" s="76" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E107" s="127"/>
       <c r="F107" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G107" s="129"/>
       <c r="H107" s="171"/>
@@ -47108,7 +47259,7 @@
       </c>
       <c r="J107" s="118"/>
       <c r="K107" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L107" s="130">
         <v>40</v>
@@ -47132,22 +47283,22 @@
     </row>
     <row r="108" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="176" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B108" s="128" t="s">
         <v>2145</v>
-      </c>
-      <c r="B108" s="128" t="s">
-        <v>2146</v>
       </c>
       <c r="C108" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D108" s="81" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E108" s="127" t="s">
         <v>2147</v>
       </c>
-      <c r="E108" s="127" t="s">
-        <v>2148</v>
-      </c>
       <c r="F108" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G108" s="123"/>
       <c r="H108" s="172"/>
@@ -47156,7 +47307,7 @@
       </c>
       <c r="J108" s="118"/>
       <c r="K108" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L108" s="130">
         <v>40</v>
@@ -47195,7 +47346,7 @@
         <v>346</v>
       </c>
       <c r="F109" s="118" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G109" s="118" t="s">
         <v>365</v>
@@ -47208,10 +47359,10 @@
       </c>
       <c r="J109" s="118"/>
       <c r="K109" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L109" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M109" s="118">
         <v>95</v>
@@ -47219,22 +47370,22 @@
     </row>
     <row r="110" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="122" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B110" s="125" t="s">
         <v>2149</v>
-      </c>
-      <c r="B110" s="125" t="s">
-        <v>2150</v>
       </c>
       <c r="C110" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D110" s="118" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E110" s="118" t="s">
         <v>2151</v>
       </c>
-      <c r="E110" s="118" t="s">
-        <v>2152</v>
-      </c>
       <c r="F110" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G110" s="118" t="s">
         <v>425</v>
@@ -47247,7 +47398,7 @@
       </c>
       <c r="J110" s="118"/>
       <c r="K110" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L110" s="118">
         <v>40</v>
@@ -47271,22 +47422,22 @@
     </row>
     <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="176" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B111" s="128" t="s">
         <v>2153</v>
-      </c>
-      <c r="B111" s="128" t="s">
-        <v>2154</v>
       </c>
       <c r="C111" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D111" s="76" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E111" s="127" t="s">
         <v>2155</v>
       </c>
-      <c r="E111" s="127" t="s">
-        <v>2156</v>
-      </c>
       <c r="F111" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G111" s="123"/>
       <c r="H111" s="195"/>
@@ -47295,7 +47446,7 @@
       </c>
       <c r="J111" s="118"/>
       <c r="K111" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L111" s="118">
         <v>40</v>
@@ -47334,7 +47485,7 @@
         <v>462</v>
       </c>
       <c r="F112" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G112" s="118" t="s">
         <v>457</v>
@@ -47345,7 +47496,7 @@
       </c>
       <c r="J112" s="118"/>
       <c r="K112" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L112" s="118">
         <v>40</v>
@@ -47371,7 +47522,7 @@
         <v>352</v>
       </c>
       <c r="F113" s="118" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G113" s="118" t="s">
         <v>365</v>
@@ -47384,10 +47535,10 @@
       </c>
       <c r="J113" s="118"/>
       <c r="K113" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L113" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M113" s="118">
         <v>95</v>
@@ -47395,33 +47546,33 @@
     </row>
     <row r="114" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="176" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B114" s="134" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C114" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D114" s="81" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E114" s="127" t="s">
         <v>2158</v>
       </c>
-      <c r="E114" s="127" t="s">
-        <v>2159</v>
-      </c>
       <c r="F114" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G114" s="123"/>
       <c r="H114" s="172" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="I114" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J114" s="118"/>
       <c r="K114" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L114" s="130">
         <v>80</v>
@@ -47445,35 +47596,35 @@
     </row>
     <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="176" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B115" s="128" t="s">
         <v>2161</v>
-      </c>
-      <c r="B115" s="128" t="s">
-        <v>2162</v>
       </c>
       <c r="C115" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D115" s="76" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E115" s="127" t="s">
         <v>2163</v>
       </c>
-      <c r="E115" s="127" t="s">
-        <v>2164</v>
-      </c>
       <c r="F115" s="123" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="G115" s="123" t="s">
         <v>425</v>
       </c>
       <c r="H115" s="195"/>
       <c r="I115" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J115" s="118" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="K115" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L115" s="118">
         <v>60</v>
@@ -47497,7 +47648,7 @@
     </row>
     <row r="116" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="122" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B116" s="125" t="s">
         <v>275</v>
@@ -47512,7 +47663,7 @@
         <v>351</v>
       </c>
       <c r="F116" s="118" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G116" s="118" t="s">
         <v>365</v>
@@ -47525,10 +47676,10 @@
       </c>
       <c r="J116" s="118"/>
       <c r="K116" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L116" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M116" s="118">
         <v>95</v>
@@ -47561,10 +47712,10 @@
         <v>324</v>
       </c>
       <c r="E117" s="118" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F117" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G117" s="118"/>
       <c r="H117" s="122" t="s">
@@ -47575,7 +47726,7 @@
       </c>
       <c r="J117" s="118"/>
       <c r="K117" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L117" s="118">
         <v>80</v>
@@ -47601,7 +47752,7 @@
         <v>526</v>
       </c>
       <c r="F118" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G118" s="123" t="s">
         <v>425</v>
@@ -47614,7 +47765,7 @@
       </c>
       <c r="J118" s="118"/>
       <c r="K118" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L118" s="118">
         <v>40</v>
@@ -47638,10 +47789,10 @@
     </row>
     <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="182" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B119" s="77" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C119" s="89" t="s">
         <v>260</v>
@@ -47653,7 +47804,7 @@
         <v>494</v>
       </c>
       <c r="F119" s="172" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G119" s="123" t="s">
         <v>496</v>
@@ -47666,7 +47817,7 @@
       </c>
       <c r="J119" s="118"/>
       <c r="K119" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L119" s="118">
         <v>70</v>
@@ -47705,7 +47856,7 @@
         <v>421</v>
       </c>
       <c r="F120" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G120" s="123" t="s">
         <v>422</v>
@@ -47718,7 +47869,7 @@
       </c>
       <c r="J120" s="118"/>
       <c r="K120" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L120" s="130">
         <v>80</v>
@@ -47757,7 +47908,7 @@
         <v>417</v>
       </c>
       <c r="F121" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G121" s="127"/>
       <c r="H121" s="176" t="s">
@@ -47768,7 +47919,7 @@
       </c>
       <c r="J121" s="118"/>
       <c r="K121" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L121" s="130">
         <v>70</v>
@@ -47807,7 +47958,7 @@
         <v>542</v>
       </c>
       <c r="F122" s="123" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G122" s="123" t="s">
         <v>540</v>
@@ -47820,7 +47971,7 @@
       </c>
       <c r="J122" s="118"/>
       <c r="K122" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L122" s="118">
         <v>100</v>
@@ -47844,22 +47995,22 @@
     </row>
     <row r="123" spans="1:26" s="142" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="190" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B123" s="128" t="s">
         <v>2165</v>
-      </c>
-      <c r="B123" s="128" t="s">
-        <v>2166</v>
       </c>
       <c r="C123" s="127" t="s">
         <v>274</v>
       </c>
       <c r="D123" s="75" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E123" s="127" t="s">
         <v>2167</v>
       </c>
-      <c r="E123" s="127" t="s">
-        <v>2168</v>
-      </c>
       <c r="F123" s="172" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G123" s="123" t="s">
         <v>425</v>
@@ -47872,7 +48023,7 @@
       </c>
       <c r="J123" s="118"/>
       <c r="K123" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L123" s="130">
         <v>60</v>
@@ -47911,7 +48062,7 @@
         <v>530</v>
       </c>
       <c r="F124" s="172" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G124" s="123"/>
       <c r="H124" s="172"/>
@@ -47920,10 +48071,10 @@
       </c>
       <c r="J124" s="118"/>
       <c r="K124" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L124" s="130" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M124" s="118">
         <v>90</v>
@@ -47944,22 +48095,22 @@
     </row>
     <row r="125" spans="1:26" s="124" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="122" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B125" s="125" t="s">
         <v>2169</v>
-      </c>
-      <c r="B125" s="125" t="s">
-        <v>2170</v>
       </c>
       <c r="C125" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D125" s="118" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E125" s="118" t="s">
         <v>2171</v>
       </c>
-      <c r="E125" s="118" t="s">
-        <v>2172</v>
-      </c>
       <c r="F125" s="172" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G125" s="118"/>
       <c r="H125" s="122"/>
@@ -47968,10 +48119,10 @@
       </c>
       <c r="J125" s="118"/>
       <c r="K125" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L125" s="118" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M125" s="118">
         <v>90</v>
@@ -47992,22 +48143,22 @@
     </row>
     <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="176" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B126" s="128" t="s">
         <v>2173</v>
-      </c>
-      <c r="B126" s="128" t="s">
-        <v>2174</v>
       </c>
       <c r="C126" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D126" s="76" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E126" s="127" t="s">
         <v>2175</v>
       </c>
-      <c r="E126" s="127" t="s">
-        <v>2176</v>
-      </c>
       <c r="F126" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G126" s="123" t="s">
         <v>425</v>
@@ -48020,7 +48171,7 @@
       </c>
       <c r="J126" s="118"/>
       <c r="K126" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L126" s="130">
         <v>40</v>
@@ -48059,7 +48210,7 @@
         <v>462</v>
       </c>
       <c r="F127" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G127" s="118" t="s">
         <v>457</v>
@@ -48070,7 +48221,7 @@
       </c>
       <c r="J127" s="118"/>
       <c r="K127" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L127" s="118">
         <v>40</v>
@@ -48081,33 +48232,33 @@
     </row>
     <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="180" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B128" s="121" t="s">
         <v>2177</v>
       </c>
-      <c r="B128" s="121" t="s">
+      <c r="C128" s="121" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D128" s="79" t="s">
         <v>2178</v>
       </c>
-      <c r="C128" s="121" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D128" s="79" t="s">
+      <c r="E128" s="122" t="s">
         <v>2179</v>
       </c>
-      <c r="E128" s="122" t="s">
-        <v>2180</v>
-      </c>
       <c r="F128" s="122" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G128" s="122"/>
       <c r="H128" s="122" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="I128" s="122" t="s">
         <v>414</v>
       </c>
       <c r="J128" s="118"/>
       <c r="K128" s="122" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L128" s="122">
         <v>40</v>
@@ -48146,7 +48297,7 @@
         <v>532</v>
       </c>
       <c r="F129" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G129" s="123"/>
       <c r="H129" s="172"/>
@@ -48155,7 +48306,7 @@
       </c>
       <c r="J129" s="118"/>
       <c r="K129" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L129" s="130">
         <v>40</v>
@@ -48179,35 +48330,35 @@
     </row>
     <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="122" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B130" s="125" t="s">
         <v>2182</v>
-      </c>
-      <c r="B130" s="125" t="s">
-        <v>2183</v>
       </c>
       <c r="C130" s="143" t="s">
         <v>264</v>
       </c>
       <c r="D130" s="118" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E130" s="118" t="s">
         <v>2184</v>
       </c>
-      <c r="E130" s="118" t="s">
+      <c r="F130" s="122" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G130" s="118" t="s">
         <v>2185</v>
       </c>
-      <c r="F130" s="122" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G130" s="118" t="s">
-        <v>2186</v>
-      </c>
       <c r="H130" s="122" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="I130" s="118" t="s">
         <v>414</v>
       </c>
       <c r="J130" s="118"/>
       <c r="K130" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L130" s="118">
         <v>40</v>
@@ -48218,22 +48369,22 @@
     </row>
     <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="176" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B131" s="128" t="s">
         <v>2187</v>
-      </c>
-      <c r="B131" s="128" t="s">
-        <v>2188</v>
       </c>
       <c r="C131" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D131" s="76" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E131" s="127" t="s">
         <v>2189</v>
       </c>
-      <c r="E131" s="127" t="s">
-        <v>2190</v>
-      </c>
       <c r="F131" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G131" s="123"/>
       <c r="H131" s="172"/>
@@ -48242,7 +48393,7 @@
       </c>
       <c r="J131" s="118"/>
       <c r="K131" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L131" s="130">
         <v>100</v>
@@ -48266,7 +48417,7 @@
     </row>
     <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="122" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B132" s="125" t="s">
         <v>261</v>
@@ -48275,13 +48426,13 @@
         <v>262</v>
       </c>
       <c r="D132" s="144" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E132" s="118" t="s">
         <v>2192</v>
       </c>
-      <c r="E132" s="118" t="s">
-        <v>2193</v>
-      </c>
       <c r="F132" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G132" s="118" t="s">
         <v>425</v>
@@ -48294,7 +48445,7 @@
       </c>
       <c r="J132" s="118"/>
       <c r="K132" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L132" s="118">
         <v>40</v>
@@ -48320,7 +48471,7 @@
         <v>435</v>
       </c>
       <c r="F133" s="145" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G133" s="118" t="s">
         <v>438</v>
@@ -48333,7 +48484,7 @@
       </c>
       <c r="J133" s="118"/>
       <c r="K133" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L133" s="132">
         <v>40</v>
@@ -48359,7 +48510,7 @@
         <v>436</v>
       </c>
       <c r="F134" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G134" s="118" t="s">
         <v>438</v>
@@ -48372,7 +48523,7 @@
       </c>
       <c r="J134" s="118"/>
       <c r="K134" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L134" s="118">
         <v>40</v>
@@ -48383,22 +48534,22 @@
     </row>
     <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="176" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B135" s="128" t="s">
         <v>2194</v>
-      </c>
-      <c r="B135" s="128" t="s">
-        <v>2195</v>
       </c>
       <c r="C135" s="127" t="s">
         <v>260</v>
       </c>
       <c r="D135" s="81" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E135" s="127" t="s">
         <v>2196</v>
       </c>
-      <c r="E135" s="127" t="s">
-        <v>2197</v>
-      </c>
       <c r="F135" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G135" s="127"/>
       <c r="H135" s="172"/>
@@ -48407,7 +48558,7 @@
       </c>
       <c r="J135" s="118"/>
       <c r="K135" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L135" s="130">
         <v>70</v>
@@ -48446,7 +48597,7 @@
         <v>402</v>
       </c>
       <c r="F136" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G136" s="127"/>
       <c r="H136" s="172" t="s">
@@ -48457,7 +48608,7 @@
       </c>
       <c r="J136" s="118"/>
       <c r="K136" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L136" s="130">
         <v>80</v>
@@ -48496,7 +48647,7 @@
         <v>403</v>
       </c>
       <c r="F137" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G137" s="118"/>
       <c r="H137" s="122" t="s">
@@ -48507,7 +48658,7 @@
       </c>
       <c r="J137" s="118"/>
       <c r="K137" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L137" s="118">
         <v>80</v>
@@ -48518,22 +48669,22 @@
     </row>
     <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="182" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B138" s="77" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C138" s="89" t="s">
         <v>264</v>
       </c>
       <c r="D138" s="76" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E138" s="127" t="s">
         <v>2199</v>
       </c>
-      <c r="E138" s="127" t="s">
-        <v>2200</v>
-      </c>
       <c r="F138" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G138" s="123"/>
       <c r="H138" s="172"/>
@@ -48542,7 +48693,7 @@
       </c>
       <c r="J138" s="118"/>
       <c r="K138" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L138" s="118">
         <v>40</v>
@@ -48581,7 +48732,7 @@
         <v>443</v>
       </c>
       <c r="F139" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G139" s="123" t="s">
         <v>444</v>
@@ -48594,7 +48745,7 @@
       </c>
       <c r="J139" s="118"/>
       <c r="K139" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L139" s="118">
         <v>40</v>
@@ -48633,7 +48784,7 @@
         <v>404</v>
       </c>
       <c r="F140" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G140" s="118"/>
       <c r="H140" s="122" t="s">
@@ -48644,7 +48795,7 @@
       </c>
       <c r="J140" s="118"/>
       <c r="K140" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L140" s="118">
         <v>80</v>
@@ -48670,7 +48821,7 @@
         <v>405</v>
       </c>
       <c r="F141" s="123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G141" s="123"/>
       <c r="H141" s="172" t="s">
@@ -48681,7 +48832,7 @@
       </c>
       <c r="J141" s="118"/>
       <c r="K141" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L141" s="130">
         <v>80</v>
@@ -48720,7 +48871,7 @@
         <v>510</v>
       </c>
       <c r="F142" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G142" s="123" t="s">
         <v>512</v>
@@ -48733,7 +48884,7 @@
       </c>
       <c r="J142" s="118"/>
       <c r="K142" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L142" s="118">
         <v>40</v>
@@ -48757,33 +48908,33 @@
     </row>
     <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="178" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B143" s="77" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C143" s="89" t="s">
         <v>274</v>
       </c>
       <c r="D143" s="76" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E143" s="127" t="s">
         <v>2202</v>
       </c>
-      <c r="E143" s="127" t="s">
-        <v>2203</v>
-      </c>
       <c r="F143" s="172" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G143" s="123"/>
       <c r="H143" s="172" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="I143" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J143" s="118"/>
       <c r="K143" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L143" s="118">
         <v>100</v>
@@ -48807,35 +48958,35 @@
     </row>
     <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="176" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B144" s="128" t="s">
         <v>2477</v>
-      </c>
-      <c r="B144" s="128" t="s">
-        <v>2478</v>
       </c>
       <c r="C144" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D144" s="75" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E144" s="127" t="s">
         <v>2205</v>
       </c>
-      <c r="E144" s="127" t="s">
-        <v>2206</v>
-      </c>
       <c r="F144" s="172" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="G144" s="127"/>
       <c r="H144" s="176" t="s">
         <v>413</v>
       </c>
       <c r="I144" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J144" s="118" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="K144" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L144" s="130">
         <v>40</v>
@@ -48874,7 +49025,7 @@
         <v>406</v>
       </c>
       <c r="F145" s="118" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G145" s="118"/>
       <c r="H145" s="122" t="s">
@@ -48885,7 +49036,7 @@
       </c>
       <c r="J145" s="118"/>
       <c r="K145" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L145" s="118">
         <v>80</v>
@@ -48911,7 +49062,7 @@
         <v>564</v>
       </c>
       <c r="F146" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G146" s="118" t="s">
         <v>425</v>
@@ -48920,13 +49071,13 @@
         <v>393</v>
       </c>
       <c r="I146" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J146" s="118" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="K146" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L146" s="118">
         <v>40</v>
@@ -48937,22 +49088,22 @@
     </row>
     <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="182" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B147" s="77" t="s">
         <v>2207</v>
-      </c>
-      <c r="B147" s="77" t="s">
-        <v>2208</v>
       </c>
       <c r="C147" s="89" t="s">
         <v>260</v>
       </c>
       <c r="D147" s="76" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E147" s="127" t="s">
         <v>2209</v>
       </c>
-      <c r="E147" s="127" t="s">
-        <v>2210</v>
-      </c>
       <c r="F147" s="172" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G147" s="123" t="s">
         <v>425</v>
@@ -48965,7 +49116,7 @@
       </c>
       <c r="J147" s="118"/>
       <c r="K147" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L147" s="118">
         <v>40</v>
@@ -48989,22 +49140,22 @@
     </row>
     <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="176" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B148" s="127" t="s">
         <v>2211</v>
       </c>
-      <c r="B148" s="127" t="s">
+      <c r="C148" s="127" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D148" s="75" t="s">
         <v>2212</v>
       </c>
-      <c r="C148" s="127" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D148" s="75" t="s">
+      <c r="E148" s="123" t="s">
         <v>2213</v>
       </c>
-      <c r="E148" s="123" t="s">
-        <v>2214</v>
-      </c>
       <c r="F148" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G148" s="123" t="s">
         <v>425</v>
@@ -49017,7 +49168,7 @@
       </c>
       <c r="J148" s="130"/>
       <c r="K148" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L148" s="130">
         <v>40</v>
@@ -49056,7 +49207,7 @@
         <v>407</v>
       </c>
       <c r="F149" s="122" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G149" s="122"/>
       <c r="H149" s="122" t="s">
@@ -49067,7 +49218,7 @@
       </c>
       <c r="J149" s="118"/>
       <c r="K149" s="122" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L149" s="122">
         <v>80</v>
@@ -49091,7 +49242,7 @@
     </row>
     <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="180" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B150" s="121" t="s">
         <v>275</v>
@@ -49100,11 +49251,11 @@
         <v>276</v>
       </c>
       <c r="D150" s="82" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E150" s="130"/>
       <c r="F150" s="122" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G150" s="122" t="s">
         <v>425</v>
@@ -49117,10 +49268,10 @@
       </c>
       <c r="J150" s="118"/>
       <c r="K150" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L150" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M150" s="118">
         <v>95</v>
@@ -49128,22 +49279,22 @@
     </row>
     <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="176" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B151" s="128" t="s">
         <v>2217</v>
-      </c>
-      <c r="B151" s="128" t="s">
-        <v>2218</v>
       </c>
       <c r="C151" s="127" t="s">
         <v>279</v>
       </c>
       <c r="D151" s="76" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E151" s="127" t="s">
         <v>2219</v>
       </c>
-      <c r="E151" s="127" t="s">
-        <v>2220</v>
-      </c>
       <c r="F151" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G151" s="123"/>
       <c r="H151" s="172"/>
@@ -49152,7 +49303,7 @@
       </c>
       <c r="J151" s="118"/>
       <c r="K151" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L151" s="118">
         <v>40</v>
@@ -49188,10 +49339,10 @@
         <v>533</v>
       </c>
       <c r="E152" s="118" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F152" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G152" s="118"/>
       <c r="H152" s="122"/>
@@ -49200,7 +49351,7 @@
       </c>
       <c r="J152" s="118"/>
       <c r="K152" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L152" s="118">
         <v>40</v>
@@ -49226,7 +49377,7 @@
         <v>534</v>
       </c>
       <c r="F153" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G153" s="123" t="s">
         <v>538</v>
@@ -49237,7 +49388,7 @@
       </c>
       <c r="J153" s="130"/>
       <c r="K153" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L153" s="118">
         <v>40</v>
@@ -49276,7 +49427,7 @@
         <v>344</v>
       </c>
       <c r="F154" s="118" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G154" s="118" t="s">
         <v>365</v>
@@ -49289,10 +49440,10 @@
       </c>
       <c r="J154" s="118"/>
       <c r="K154" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L154" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M154" s="118">
         <v>95</v>
@@ -49300,29 +49451,29 @@
     </row>
     <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="176" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B155" s="128" t="s">
         <v>2221</v>
-      </c>
-      <c r="B155" s="128" t="s">
-        <v>2222</v>
       </c>
       <c r="C155" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D155" s="76"/>
       <c r="E155" s="127" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="F155" s="123" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G155" s="123"/>
       <c r="H155" s="172"/>
       <c r="I155" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J155" s="118"/>
       <c r="K155" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L155" s="130">
         <v>70</v>
@@ -49346,22 +49497,22 @@
     </row>
     <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="190" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B156" s="128" t="s">
         <v>2224</v>
-      </c>
-      <c r="B156" s="128" t="s">
-        <v>2225</v>
       </c>
       <c r="C156" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D156" s="76" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E156" s="127" t="s">
         <v>2226</v>
       </c>
-      <c r="E156" s="127" t="s">
-        <v>2227</v>
-      </c>
       <c r="F156" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G156" s="123" t="s">
         <v>425</v>
@@ -49374,7 +49525,7 @@
       </c>
       <c r="J156" s="118"/>
       <c r="K156" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L156" s="130">
         <v>100</v>
@@ -49413,7 +49564,7 @@
         <v>537</v>
       </c>
       <c r="F157" s="123" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G157" s="123"/>
       <c r="H157" s="195"/>
@@ -49422,7 +49573,7 @@
       </c>
       <c r="J157" s="118"/>
       <c r="K157" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L157" s="118">
         <v>70</v>
@@ -49461,7 +49612,7 @@
         <v>520</v>
       </c>
       <c r="F158" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G158" s="118" t="s">
         <v>414</v>
@@ -49474,7 +49625,7 @@
       </c>
       <c r="J158" s="118"/>
       <c r="K158" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L158" s="118">
         <v>40</v>
@@ -49485,22 +49636,22 @@
     </row>
     <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="122" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B159" s="147" t="s">
         <v>2228</v>
-      </c>
-      <c r="B159" s="147" t="s">
-        <v>2229</v>
       </c>
       <c r="C159" s="122" t="s">
         <v>260</v>
       </c>
       <c r="D159" s="148" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E159" s="122" t="s">
         <v>2230</v>
       </c>
-      <c r="E159" s="122" t="s">
-        <v>2231</v>
-      </c>
       <c r="F159" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G159" s="122"/>
       <c r="H159" s="122"/>
@@ -49509,7 +49660,7 @@
       </c>
       <c r="J159" s="118"/>
       <c r="K159" s="122" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L159" s="122">
         <v>40</v>
@@ -49548,7 +49699,7 @@
         <v>485</v>
       </c>
       <c r="F160" s="123" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G160" s="123" t="s">
         <v>414</v>
@@ -49561,7 +49712,7 @@
       </c>
       <c r="J160" s="118"/>
       <c r="K160" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L160" s="130">
         <v>40</v>
@@ -49600,7 +49751,7 @@
         <v>353</v>
       </c>
       <c r="F161" s="123" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G161" s="123" t="s">
         <v>365</v>
@@ -49613,10 +49764,10 @@
       </c>
       <c r="J161" s="118"/>
       <c r="K161" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L161" s="130" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M161" s="118">
         <v>95</v>
@@ -49652,7 +49803,7 @@
         <v>477</v>
       </c>
       <c r="F162" s="118" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G162" s="118" t="s">
         <v>478</v>
@@ -49665,7 +49816,7 @@
       </c>
       <c r="J162" s="118"/>
       <c r="K162" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L162" s="118">
         <v>100</v>
@@ -49691,7 +49842,7 @@
         <v>464</v>
       </c>
       <c r="F163" s="123" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="G163" s="123" t="s">
         <v>465</v>
@@ -49700,13 +49851,13 @@
         <v>466</v>
       </c>
       <c r="I163" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J163" s="118" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="K163" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L163" s="130">
         <v>80</v>
@@ -49730,35 +49881,35 @@
     </row>
     <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="176" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B164" s="128" t="s">
         <v>2232</v>
-      </c>
-      <c r="B164" s="128" t="s">
-        <v>2233</v>
       </c>
       <c r="C164" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D164" s="76" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E164" s="123" t="s">
         <v>2234</v>
       </c>
-      <c r="E164" s="123" t="s">
-        <v>2235</v>
-      </c>
       <c r="F164" s="123" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G164" s="123" t="s">
         <v>425</v>
       </c>
       <c r="H164" s="195"/>
       <c r="I164" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J164" s="118" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="K164" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L164" s="118">
         <v>80</v>
@@ -49782,10 +49933,10 @@
     </row>
     <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="176" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B165" s="128" t="s">
         <v>2236</v>
-      </c>
-      <c r="B165" s="128" t="s">
-        <v>2237</v>
       </c>
       <c r="C165" s="127" t="s">
         <v>270</v>
@@ -49793,20 +49944,20 @@
       <c r="D165" s="81"/>
       <c r="E165" s="123"/>
       <c r="F165" s="172" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="G165" s="141" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H165" s="172" t="s">
         <v>2238</v>
-      </c>
-      <c r="H165" s="172" t="s">
-        <v>2239</v>
       </c>
       <c r="I165" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J165" s="118"/>
       <c r="K165" s="130" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L165" s="130">
         <v>100</v>
@@ -49845,7 +49996,7 @@
         <v>519</v>
       </c>
       <c r="F166" s="123" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G166" s="123" t="s">
         <v>414</v>
@@ -49858,10 +50009,10 @@
       </c>
       <c r="J166" s="130"/>
       <c r="K166" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L166" s="130" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M166" s="118">
         <v>90</v>
@@ -49882,7 +50033,7 @@
     </row>
     <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="122" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B167" s="125" t="s">
         <v>304</v>
@@ -49897,7 +50048,7 @@
         <v>516</v>
       </c>
       <c r="F167" s="118" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G167" s="118" t="s">
         <v>425</v>
@@ -49906,13 +50057,13 @@
         <v>518</v>
       </c>
       <c r="I167" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J167" s="118" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="K167" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L167" s="118">
         <v>100</v>
@@ -49938,7 +50089,7 @@
         <v>469</v>
       </c>
       <c r="F168" s="118" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G168" s="118" t="s">
         <v>425</v>
@@ -49947,13 +50098,13 @@
         <v>468</v>
       </c>
       <c r="I168" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J168" s="118" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="K168" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L168" s="118">
         <v>100</v>
@@ -49964,7 +50115,7 @@
     </row>
     <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="188" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B169" s="128" t="s">
         <v>499</v>
@@ -49995,7 +50146,7 @@
     </row>
     <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="176" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B170" s="128" t="s">
         <v>499</v>
@@ -50041,11 +50192,11 @@
     </row>
     <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="181" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B171" s="128"/>
       <c r="C171" s="127" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D171" s="76"/>
       <c r="E171" s="123"/>
@@ -50077,7 +50228,7 @@
     </row>
     <row r="172" spans="1:26" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="176" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B172" s="128" t="s">
         <v>281</v>
@@ -50086,26 +50237,26 @@
         <v>260</v>
       </c>
       <c r="D172" s="76" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E172" s="127" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F172" s="123" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G172" s="123" t="s">
         <v>414</v>
       </c>
       <c r="H172" s="198" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="I172" s="129" t="s">
         <v>414</v>
       </c>
       <c r="J172" s="130"/>
       <c r="K172" s="130" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L172" s="149">
         <v>100</v>
@@ -50129,35 +50280,35 @@
     </row>
     <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="182" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B173" s="90" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C173" s="127" t="s">
         <v>270</v>
       </c>
       <c r="D173" s="76" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E173" s="123" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F173" s="123" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G173" s="123" t="s">
         <v>425</v>
       </c>
       <c r="H173" s="172"/>
       <c r="I173" s="129" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J173" s="118" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="K173" s="130" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L173" s="130">
         <v>97</v>
@@ -50181,11 +50332,11 @@
     </row>
     <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="122" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B174" s="125"/>
       <c r="C174" s="118" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D174" s="118"/>
       <c r="E174" s="118"/>
@@ -50207,7 +50358,7 @@
         <v>243</v>
       </c>
       <c r="B175" s="90" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C175" s="122" t="s">
         <v>270</v>
@@ -50219,7 +50370,7 @@
         <v>488</v>
       </c>
       <c r="F175" s="173" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G175" s="122" t="s">
         <v>425</v>
@@ -50228,13 +50379,13 @@
         <v>426</v>
       </c>
       <c r="I175" s="122" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J175" s="118" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="K175" s="122" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L175" s="122">
         <v>100</v>
@@ -50258,35 +50409,35 @@
     </row>
     <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="122" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B176" s="125" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C176" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D176" s="118" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E176" s="118" t="s">
         <v>2264</v>
       </c>
-      <c r="E176" s="118" t="s">
-        <v>2265</v>
-      </c>
       <c r="F176" s="118" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G176" s="118" t="s">
         <v>478</v>
       </c>
       <c r="H176" s="122" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="I176" s="118" t="s">
         <v>414</v>
       </c>
       <c r="J176" s="118"/>
       <c r="K176" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L176" s="118">
         <v>100</v>
@@ -50297,33 +50448,33 @@
     </row>
     <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="122" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B177" s="125" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C177" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D177" s="118" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E177" s="118" t="s">
         <v>2315</v>
       </c>
-      <c r="E177" s="118" t="s">
-        <v>2316</v>
-      </c>
       <c r="F177" s="118" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G177" s="118"/>
       <c r="H177" s="122"/>
       <c r="I177" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J177" s="118" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="K177" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L177" s="118">
         <v>100</v>
@@ -50334,22 +50485,22 @@
     </row>
     <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="183" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B178" s="151" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C178" s="150" t="s">
         <v>270</v>
       </c>
       <c r="D178" s="87" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E178" s="152" t="s">
         <v>2315</v>
       </c>
-      <c r="E178" s="152" t="s">
-        <v>2316</v>
-      </c>
       <c r="F178" s="152" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G178" s="152"/>
       <c r="H178" s="199"/>
@@ -50358,7 +50509,7 @@
       </c>
       <c r="J178" s="132"/>
       <c r="K178" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L178" s="132">
         <v>100</v>
@@ -50369,35 +50520,35 @@
     </row>
     <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="122" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B179" s="125" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C179" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D179" s="71" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E179" s="118" t="s">
         <v>2319</v>
       </c>
-      <c r="E179" s="118" t="s">
-        <v>2320</v>
-      </c>
       <c r="F179" s="172" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G179" s="141"/>
       <c r="H179" s="122" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I179" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J179" s="118" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="K179" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L179" s="118">
         <v>100</v>
@@ -50408,35 +50559,35 @@
     </row>
     <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="122" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B180" s="125" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C180" s="150" t="s">
         <v>270</v>
       </c>
       <c r="D180" s="118" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E180" s="118" t="s">
         <v>2319</v>
       </c>
-      <c r="E180" s="118" t="s">
-        <v>2320</v>
-      </c>
       <c r="F180" s="123" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G180" s="118"/>
       <c r="H180" s="122" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I180" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J180" s="118" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="K180" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L180" s="132">
         <v>100</v>
@@ -50447,35 +50598,35 @@
     </row>
     <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="122" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B181" s="125" t="s">
         <v>2323</v>
-      </c>
-      <c r="B181" s="125" t="s">
-        <v>2324</v>
       </c>
       <c r="C181" s="150" t="s">
         <v>270</v>
       </c>
       <c r="D181" s="118" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E181" s="118" t="s">
         <v>2325</v>
       </c>
-      <c r="E181" s="118" t="s">
-        <v>2326</v>
-      </c>
       <c r="F181" s="123" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="G181" s="118"/>
       <c r="H181" s="122" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I181" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J181" s="118" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="K181" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L181" s="132">
         <v>100</v>
@@ -50486,35 +50637,35 @@
     </row>
     <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="122" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B182" s="125" t="s">
         <v>2327</v>
-      </c>
-      <c r="B182" s="125" t="s">
-        <v>2328</v>
       </c>
       <c r="C182" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D182" s="118" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E182" s="118" t="s">
         <v>2329</v>
       </c>
-      <c r="E182" s="118" t="s">
-        <v>2330</v>
-      </c>
       <c r="F182" s="123" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="G182" s="118"/>
       <c r="H182" s="122" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I182" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J182" s="118" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="K182" s="71" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L182" s="132">
         <v>100</v>
@@ -50525,20 +50676,20 @@
     </row>
     <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="122" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B183" s="125"/>
       <c r="C183" s="118" t="s">
         <v>260</v>
       </c>
       <c r="D183" s="118" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E183" s="118" t="s">
         <v>2331</v>
       </c>
-      <c r="E183" s="118" t="s">
-        <v>2332</v>
-      </c>
       <c r="F183" s="123" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G183" s="118"/>
       <c r="H183" s="122"/>
@@ -50547,7 +50698,7 @@
       </c>
       <c r="J183" s="118"/>
       <c r="K183" s="71" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L183" s="132">
         <v>70</v>
@@ -50558,22 +50709,22 @@
     </row>
     <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="122" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B184" s="125" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C184" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D184" s="118" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E184" s="118" t="s">
         <v>2334</v>
       </c>
-      <c r="E184" s="118" t="s">
+      <c r="F184" s="118" t="s">
         <v>2335</v>
-      </c>
-      <c r="F184" s="118" t="s">
-        <v>2336</v>
       </c>
       <c r="G184" s="118" t="s">
         <v>425</v>
@@ -50582,13 +50733,13 @@
         <v>426</v>
       </c>
       <c r="I184" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J184" s="118" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="K184" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L184" s="132">
         <v>97</v>
@@ -50599,33 +50750,33 @@
     </row>
     <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="174" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B185" s="154" t="s">
         <v>2337</v>
-      </c>
-      <c r="B185" s="154" t="s">
-        <v>2338</v>
       </c>
       <c r="C185" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D185" s="132" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E185" s="118" t="s">
         <v>2339</v>
       </c>
-      <c r="E185" s="118" t="s">
+      <c r="F185" s="123" t="s">
         <v>2340</v>
-      </c>
-      <c r="F185" s="123" t="s">
-        <v>2341</v>
       </c>
       <c r="G185" s="132"/>
       <c r="H185" s="122"/>
       <c r="I185" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J185" s="118" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="K185" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L185" s="118">
         <v>100</v>
@@ -50636,37 +50787,37 @@
     </row>
     <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="174" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B186" s="154" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C186" s="132" t="s">
         <v>270</v>
       </c>
       <c r="D186" s="132" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E186" s="123" t="s">
         <v>2279</v>
       </c>
-      <c r="E186" s="123" t="s">
-        <v>2280</v>
-      </c>
       <c r="F186" s="171" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G186" s="132" t="s">
         <v>478</v>
       </c>
       <c r="H186" s="174" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="I186" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J186" s="132" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K186" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L186" s="132">
         <v>100</v>
@@ -50677,31 +50828,31 @@
     </row>
     <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="122" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B187" s="125" t="s">
         <v>2342</v>
-      </c>
-      <c r="B187" s="125" t="s">
-        <v>2343</v>
       </c>
       <c r="C187" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D187" s="118" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E187" s="118"/>
       <c r="F187" s="118" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="G187" s="118"/>
       <c r="H187" s="122"/>
       <c r="I187" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J187" s="118" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K187" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L187" s="118">
         <v>100</v>
@@ -50712,7 +50863,7 @@
     </row>
     <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="122" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B188" s="125"/>
       <c r="C188" s="118" t="s">
@@ -50721,18 +50872,18 @@
       <c r="D188" s="118"/>
       <c r="E188" s="118"/>
       <c r="F188" s="118" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G188" s="118"/>
       <c r="H188" s="122"/>
       <c r="I188" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J188" s="118" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K188" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L188" s="118">
         <v>100</v>
@@ -50743,7 +50894,7 @@
     </row>
     <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="122" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B189" s="125"/>
       <c r="C189" s="118" t="s">
@@ -50754,7 +50905,7 @@
         <v>394</v>
       </c>
       <c r="F189" s="118" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G189" s="118"/>
       <c r="H189" s="122"/>
@@ -50763,7 +50914,7 @@
       </c>
       <c r="J189" s="118"/>
       <c r="K189" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L189" s="118">
         <v>40</v>
@@ -50774,33 +50925,33 @@
     </row>
     <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="122" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B190" s="125" t="s">
         <v>2347</v>
-      </c>
-      <c r="B190" s="125" t="s">
-        <v>2348</v>
       </c>
       <c r="C190" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D190" s="118" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E190" s="118" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="F190" s="118" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G190" s="118"/>
       <c r="H190" s="122"/>
       <c r="I190" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J190" s="118" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K190" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L190" s="132">
         <v>100</v>
@@ -50811,33 +50962,33 @@
     </row>
     <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="122" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B191" s="125" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="C191" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D191" s="118" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E191" s="118" t="s">
         <v>2351</v>
       </c>
-      <c r="E191" s="118" t="s">
-        <v>2352</v>
-      </c>
       <c r="F191" s="118" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G191" s="118"/>
       <c r="H191" s="122"/>
       <c r="I191" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J191" s="118" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="K191" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L191" s="118">
         <v>100</v>
@@ -50848,7 +50999,7 @@
     </row>
     <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="122" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B192" s="125"/>
       <c r="C192" s="132" t="s">
@@ -50857,18 +51008,18 @@
       <c r="D192" s="118"/>
       <c r="E192" s="118"/>
       <c r="F192" s="118" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="G192" s="118"/>
       <c r="H192" s="122"/>
       <c r="I192" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J192" s="118" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="K192" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L192" s="118">
         <v>72</v>
@@ -50879,33 +51030,33 @@
     </row>
     <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="122" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B193" s="125" t="s">
         <v>2353</v>
-      </c>
-      <c r="B193" s="125" t="s">
-        <v>2354</v>
       </c>
       <c r="C193" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D193" s="118" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E193" s="118" t="s">
         <v>2355</v>
       </c>
-      <c r="E193" s="118" t="s">
+      <c r="F193" s="118" t="s">
         <v>2356</v>
-      </c>
-      <c r="F193" s="118" t="s">
-        <v>2357</v>
       </c>
       <c r="G193" s="118"/>
       <c r="H193" s="122"/>
       <c r="I193" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J193" s="118" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="K193" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L193" s="132">
         <v>100</v>
@@ -50916,10 +51067,10 @@
     </row>
     <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="122" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B194" s="125" t="s">
         <v>2358</v>
-      </c>
-      <c r="B194" s="125" t="s">
-        <v>2359</v>
       </c>
       <c r="C194" s="118" t="s">
         <v>270</v>
@@ -50927,18 +51078,18 @@
       <c r="D194" s="118"/>
       <c r="E194" s="118"/>
       <c r="F194" s="118" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G194" s="118"/>
       <c r="H194" s="122"/>
       <c r="I194" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J194" s="118" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="K194" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L194" s="118">
         <v>100</v>
@@ -50949,10 +51100,10 @@
     </row>
     <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="122" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B195" s="125" t="s">
         <v>2360</v>
-      </c>
-      <c r="B195" s="125" t="s">
-        <v>2361</v>
       </c>
       <c r="C195" s="118" t="s">
         <v>270</v>
@@ -50960,18 +51111,18 @@
       <c r="D195" s="118"/>
       <c r="E195" s="118"/>
       <c r="F195" s="118" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G195" s="118"/>
       <c r="H195" s="122"/>
       <c r="I195" s="118" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J195" s="118" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="K195" s="118" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L195" s="118">
         <v>40</v>
@@ -50982,10 +51133,10 @@
     </row>
     <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="174" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B196" s="154" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C196" s="118" t="s">
         <v>270</v>
@@ -50993,16 +51144,16 @@
       <c r="D196" s="132"/>
       <c r="E196" s="155"/>
       <c r="F196" s="132" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="G196" s="132"/>
       <c r="H196" s="174"/>
       <c r="I196" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J196" s="132"/>
       <c r="K196" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L196" s="132">
         <v>100</v>
@@ -51013,10 +51164,10 @@
     </row>
     <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="174" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B197" s="154" t="s">
         <v>2363</v>
-      </c>
-      <c r="B197" s="154" t="s">
-        <v>2364</v>
       </c>
       <c r="C197" s="132" t="s">
         <v>270</v>
@@ -51024,18 +51175,18 @@
       <c r="D197" s="132"/>
       <c r="E197" s="132"/>
       <c r="F197" s="132" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G197" s="132"/>
       <c r="H197" s="174"/>
       <c r="I197" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J197" s="132" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="K197" s="132" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="L197" s="132">
         <v>80</v>
@@ -51046,18 +51197,18 @@
     </row>
     <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="174" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B198" s="154" t="s">
         <v>2365</v>
       </c>
-      <c r="B198" s="154" t="s">
+      <c r="C198" s="132" t="s">
         <v>2366</v>
-      </c>
-      <c r="C198" s="132" t="s">
-        <v>2367</v>
       </c>
       <c r="D198" s="132"/>
       <c r="E198" s="132"/>
       <c r="F198" s="132" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G198" s="132"/>
       <c r="H198" s="174"/>
@@ -51066,7 +51217,7 @@
       </c>
       <c r="J198" s="132"/>
       <c r="K198" s="132" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L198" s="118">
         <v>100</v>
@@ -51077,7 +51228,7 @@
     </row>
     <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="184" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B199" s="154"/>
       <c r="C199" s="132" t="s">
@@ -51100,10 +51251,10 @@
     </row>
     <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="174" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B200" s="154" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C200" s="132" t="s">
         <v>270</v>
@@ -51111,18 +51262,18 @@
       <c r="D200" s="132"/>
       <c r="E200" s="132"/>
       <c r="F200" s="132" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G200" s="132"/>
       <c r="H200" s="174"/>
       <c r="I200" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J200" s="132" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="K200" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L200" s="118">
         <v>40</v>
@@ -51133,10 +51284,10 @@
     </row>
     <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="174" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B201" s="154" t="s">
         <v>2370</v>
-      </c>
-      <c r="B201" s="154" t="s">
-        <v>2371</v>
       </c>
       <c r="C201" s="132" t="s">
         <v>270</v>
@@ -51144,7 +51295,7 @@
       <c r="D201" s="132"/>
       <c r="E201" s="132"/>
       <c r="F201" s="132" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G201" s="132"/>
       <c r="H201" s="174"/>
@@ -51153,10 +51304,10 @@
       </c>
       <c r="J201" s="132"/>
       <c r="K201" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L201" s="132" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M201" s="122">
         <v>100</v>
@@ -51164,10 +51315,10 @@
     </row>
     <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="174" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B202" s="154" t="s">
         <v>2372</v>
-      </c>
-      <c r="B202" s="154" t="s">
-        <v>2373</v>
       </c>
       <c r="C202" s="132" t="s">
         <v>313</v>
@@ -51175,7 +51326,7 @@
       <c r="D202" s="132"/>
       <c r="E202" s="132"/>
       <c r="F202" s="132" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G202" s="132"/>
       <c r="H202" s="174"/>
@@ -51184,10 +51335,10 @@
       </c>
       <c r="J202" s="132"/>
       <c r="K202" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L202" s="132" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M202" s="118">
         <v>100</v>
@@ -51195,7 +51346,7 @@
     </row>
     <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="184" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B203" s="157"/>
       <c r="C203" s="158" t="s">
@@ -51204,18 +51355,18 @@
       <c r="D203" s="156"/>
       <c r="E203" s="156"/>
       <c r="F203" s="156" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G203" s="156"/>
       <c r="H203" s="184"/>
       <c r="I203" s="156" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J203" s="156" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="K203" s="156" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L203" s="156">
         <v>100</v>
@@ -51226,10 +51377,10 @@
     </row>
     <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="174" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B204" s="154" t="s">
         <v>2376</v>
-      </c>
-      <c r="B204" s="154" t="s">
-        <v>2377</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>270</v>
@@ -51237,18 +51388,18 @@
       <c r="D204" s="132"/>
       <c r="E204" s="132"/>
       <c r="F204" s="132" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G204" s="132"/>
       <c r="H204" s="174"/>
       <c r="I204" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J204" s="156" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="K204" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L204" s="118">
         <v>60</v>
@@ -51259,10 +51410,10 @@
     </row>
     <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="174" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B205" s="154" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>270</v>
@@ -51270,7 +51421,7 @@
       <c r="D205" s="132"/>
       <c r="E205" s="132"/>
       <c r="F205" s="123" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G205" s="132"/>
       <c r="H205" s="174"/>
@@ -51279,7 +51430,7 @@
       </c>
       <c r="J205" s="132"/>
       <c r="K205" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L205" s="132">
         <v>40</v>
@@ -51290,10 +51441,10 @@
     </row>
     <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="174" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B206" s="154" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>270</v>
@@ -51301,7 +51452,7 @@
       <c r="D206" s="132"/>
       <c r="E206" s="132"/>
       <c r="F206" s="132" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G206" s="132"/>
       <c r="H206" s="174"/>
@@ -51310,7 +51461,7 @@
       </c>
       <c r="J206" s="132"/>
       <c r="K206" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L206" s="132">
         <v>80</v>
@@ -51321,7 +51472,7 @@
     </row>
     <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="174" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B207" s="154" t="s">
         <v>281</v>
@@ -51332,7 +51483,7 @@
       <c r="D207" s="132"/>
       <c r="E207" s="132"/>
       <c r="F207" s="132" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G207" s="132"/>
       <c r="H207" s="174"/>
@@ -51341,7 +51492,7 @@
       </c>
       <c r="J207" s="132"/>
       <c r="K207" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L207" s="118">
         <v>100</v>
@@ -51352,10 +51503,10 @@
     </row>
     <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="174" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B208" s="154" t="s">
         <v>2382</v>
-      </c>
-      <c r="B208" s="154" t="s">
-        <v>2383</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>270</v>
@@ -51363,19 +51514,19 @@
       <c r="D208" s="132"/>
       <c r="E208" s="132"/>
       <c r="F208" s="132" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G208" s="132"/>
       <c r="H208" s="174"/>
       <c r="I208" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J208" s="132"/>
       <c r="K208" s="132" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="L208" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M208" s="118">
         <v>100</v>
@@ -51383,10 +51534,10 @@
     </row>
     <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="174" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B209" s="154" t="s">
         <v>2386</v>
-      </c>
-      <c r="B209" s="154" t="s">
-        <v>2387</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>270</v>
@@ -51394,7 +51545,7 @@
       <c r="D209" s="132"/>
       <c r="E209" s="132"/>
       <c r="F209" s="132" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G209" s="132"/>
       <c r="H209" s="174"/>
@@ -51402,10 +51553,10 @@
         <v>414</v>
       </c>
       <c r="J209" s="132" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K209" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L209" s="118">
         <v>60</v>
@@ -51416,10 +51567,10 @@
     </row>
     <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="174" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B210" s="154" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>270</v>
@@ -51427,16 +51578,16 @@
       <c r="D210" s="132"/>
       <c r="E210" s="132"/>
       <c r="F210" s="132" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G210" s="132"/>
       <c r="H210" s="174"/>
       <c r="I210" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J210" s="132"/>
       <c r="K210" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L210" s="132">
         <v>100</v>
@@ -51447,10 +51598,10 @@
     </row>
     <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="185" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B211" s="154" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C211" s="132" t="s">
         <v>270</v>
@@ -51458,16 +51609,16 @@
       <c r="D211" s="132"/>
       <c r="E211" s="132"/>
       <c r="F211" s="132" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="G211" s="132"/>
       <c r="H211" s="174"/>
       <c r="I211" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J211" s="132"/>
       <c r="K211" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L211" s="132">
         <v>60</v>
@@ -51478,10 +51629,10 @@
     </row>
     <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="174" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B212" s="154" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C212" s="132" t="s">
         <v>270</v>
@@ -51489,7 +51640,7 @@
       <c r="D212" s="132"/>
       <c r="E212" s="132"/>
       <c r="F212" s="132" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G212" s="132"/>
       <c r="H212" s="174"/>
@@ -51498,10 +51649,10 @@
       </c>
       <c r="J212" s="132"/>
       <c r="K212" s="132" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L212" s="132" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M212" s="118">
         <v>100</v>
@@ -51509,10 +51660,10 @@
     </row>
     <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="184" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B213" s="160" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C213" s="158" t="s">
         <v>270</v>
@@ -51520,7 +51671,7 @@
       <c r="D213" s="156"/>
       <c r="E213" s="156"/>
       <c r="F213" s="156" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="G213" s="156"/>
       <c r="H213" s="184"/>
@@ -51529,7 +51680,7 @@
       </c>
       <c r="J213" s="156"/>
       <c r="K213" s="156" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L213" s="156">
         <v>100</v>
@@ -51540,10 +51691,10 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="174" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B214" s="154" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C214" s="132" t="s">
         <v>270</v>
@@ -51551,7 +51702,7 @@
       <c r="D214" s="132"/>
       <c r="E214" s="132"/>
       <c r="F214" s="132" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G214" s="132"/>
       <c r="H214" s="174"/>
@@ -51560,10 +51711,10 @@
       </c>
       <c r="J214" s="132"/>
       <c r="K214" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L214" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M214" s="118">
         <v>100</v>
@@ -51571,10 +51722,10 @@
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="174" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B215" s="154" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C215" s="132" t="s">
         <v>270</v>
@@ -51582,7 +51733,7 @@
       <c r="D215" s="132"/>
       <c r="E215" s="132"/>
       <c r="F215" s="132" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G215" s="132"/>
       <c r="H215" s="174"/>
@@ -51591,10 +51742,10 @@
       </c>
       <c r="J215" s="132"/>
       <c r="K215" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L215" s="132" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M215" s="118">
         <v>100</v>
@@ -51602,7 +51753,7 @@
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="174" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B216" s="154"/>
       <c r="C216" s="132" t="s">
@@ -51611,7 +51762,7 @@
       <c r="D216" s="132"/>
       <c r="E216" s="132"/>
       <c r="F216" s="132" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G216" s="132"/>
       <c r="H216" s="174"/>
@@ -51620,7 +51771,7 @@
       </c>
       <c r="J216" s="132"/>
       <c r="K216" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L216" s="118">
         <v>40</v>
@@ -51631,7 +51782,7 @@
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="174" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B217" s="154"/>
       <c r="C217" s="132" t="s">
@@ -51640,7 +51791,7 @@
       <c r="D217" s="132"/>
       <c r="E217" s="132"/>
       <c r="F217" s="132" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G217" s="132"/>
       <c r="H217" s="174"/>
@@ -51649,7 +51800,7 @@
       </c>
       <c r="J217" s="132"/>
       <c r="K217" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L217" s="132">
         <v>40</v>
@@ -51660,10 +51811,10 @@
     </row>
     <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="174" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B218" s="154" t="s">
         <v>2394</v>
-      </c>
-      <c r="B218" s="154" t="s">
-        <v>2395</v>
       </c>
       <c r="C218" s="132" t="s">
         <v>270</v>
@@ -51671,7 +51822,7 @@
       <c r="D218" s="132"/>
       <c r="E218" s="132"/>
       <c r="F218" s="132" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G218" s="132"/>
       <c r="H218" s="174"/>
@@ -51680,10 +51831,10 @@
       </c>
       <c r="J218" s="132"/>
       <c r="K218" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L218" s="132" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M218" s="119">
         <v>90</v>
@@ -51691,20 +51842,20 @@
     </row>
     <row r="219" spans="1:13" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="174" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B219" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C219" s="132" t="s">
         <v>270</v>
       </c>
       <c r="D219" s="132"/>
       <c r="E219" s="132" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="F219" s="155" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G219" s="132"/>
       <c r="H219" s="174"/>
@@ -51713,10 +51864,10 @@
       </c>
       <c r="J219" s="132"/>
       <c r="K219" s="132" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L219" s="132" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M219" s="118">
         <v>100</v>
@@ -51724,10 +51875,10 @@
     </row>
     <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="174" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B220" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C220" s="132" t="s">
         <v>270</v>
@@ -51735,7 +51886,7 @@
       <c r="D220" s="132"/>
       <c r="E220" s="132"/>
       <c r="F220" s="132" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G220" s="132"/>
       <c r="H220" s="174"/>
@@ -51744,10 +51895,10 @@
       </c>
       <c r="J220" s="132"/>
       <c r="K220" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L220" s="118" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M220" s="118">
         <v>90</v>
@@ -51755,10 +51906,10 @@
     </row>
     <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="174" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B221" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C221" s="132" t="s">
         <v>270</v>
@@ -51766,7 +51917,7 @@
       <c r="D221" s="132"/>
       <c r="E221" s="132"/>
       <c r="F221" s="132" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G221" s="132"/>
       <c r="H221" s="174"/>
@@ -51775,10 +51926,10 @@
       </c>
       <c r="J221" s="132"/>
       <c r="K221" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L221" s="132" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M221" s="118">
         <v>100</v>
@@ -51786,10 +51937,10 @@
     </row>
     <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="174" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B222" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C222" s="132" t="s">
         <v>270</v>
@@ -51797,7 +51948,7 @@
       <c r="D222" s="132"/>
       <c r="E222" s="132"/>
       <c r="F222" s="132" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G222" s="132"/>
       <c r="H222" s="174"/>
@@ -51806,10 +51957,10 @@
       </c>
       <c r="J222" s="132"/>
       <c r="K222" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L222" s="132" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M222" s="118">
         <v>100</v>
@@ -51817,10 +51968,10 @@
     </row>
     <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="174" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B223" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C223" s="132" t="s">
         <v>270</v>
@@ -51828,7 +51979,7 @@
       <c r="D223" s="132"/>
       <c r="E223" s="132"/>
       <c r="F223" s="118" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G223" s="132"/>
       <c r="H223" s="174"/>
@@ -51837,10 +51988,10 @@
       </c>
       <c r="J223" s="132"/>
       <c r="K223" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L223" s="132" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M223" s="118">
         <v>100</v>
@@ -51848,10 +51999,10 @@
     </row>
     <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="122" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B224" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C224" s="132" t="s">
         <v>270</v>
@@ -51859,7 +52010,7 @@
       <c r="D224" s="118"/>
       <c r="E224" s="118"/>
       <c r="F224" s="118" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G224" s="118"/>
       <c r="H224" s="122"/>
@@ -51868,10 +52019,10 @@
       </c>
       <c r="J224" s="118"/>
       <c r="K224" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L224" s="118" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M224" s="118">
         <v>100</v>
@@ -51879,10 +52030,10 @@
     </row>
     <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="122" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B225" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C225" s="132" t="s">
         <v>270</v>
@@ -51890,7 +52041,7 @@
       <c r="D225" s="118"/>
       <c r="E225" s="118"/>
       <c r="F225" s="118" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G225" s="118"/>
       <c r="H225" s="122"/>
@@ -51899,10 +52050,10 @@
       </c>
       <c r="J225" s="118"/>
       <c r="K225" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L225" s="118" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M225" s="118">
         <v>90</v>
@@ -51910,10 +52061,10 @@
     </row>
     <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="122" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B226" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C226" s="132" t="s">
         <v>270</v>
@@ -51921,7 +52072,7 @@
       <c r="D226" s="118"/>
       <c r="E226" s="118"/>
       <c r="F226" s="118" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G226" s="118"/>
       <c r="H226" s="122"/>
@@ -51930,10 +52081,10 @@
       </c>
       <c r="J226" s="118"/>
       <c r="K226" s="118" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L226" s="118" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M226" s="118">
         <v>90</v>
@@ -51941,7 +52092,7 @@
     </row>
     <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="174" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B227" s="154"/>
       <c r="C227" s="132" t="s">
@@ -51950,18 +52101,18 @@
       <c r="D227" s="132"/>
       <c r="E227" s="132"/>
       <c r="F227" s="132" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G227" s="132"/>
       <c r="H227" s="174"/>
       <c r="I227" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J227" s="118" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="K227" s="132" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="L227" s="132">
         <v>80</v>
@@ -51972,7 +52123,7 @@
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="174" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B228" s="154"/>
       <c r="C228" s="132" t="s">
@@ -51981,7 +52132,7 @@
       <c r="D228" s="132"/>
       <c r="E228" s="132"/>
       <c r="F228" s="132" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G228" s="132"/>
       <c r="H228" s="174"/>
@@ -51990,7 +52141,7 @@
       </c>
       <c r="J228" s="118"/>
       <c r="K228" s="132" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L228" s="132">
         <v>70</v>
@@ -52001,10 +52152,10 @@
     </row>
     <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="174" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B229" s="154" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C229" s="132" t="s">
         <v>270</v>
@@ -52012,18 +52163,18 @@
       <c r="D229" s="132"/>
       <c r="E229" s="132"/>
       <c r="F229" s="132" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="G229" s="132"/>
       <c r="H229" s="174"/>
       <c r="I229" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J229" s="118" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="K229" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L229" s="132">
         <v>97</v>
@@ -52034,10 +52185,10 @@
     </row>
     <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="174" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B230" s="154" t="s">
         <v>2406</v>
-      </c>
-      <c r="B230" s="154" t="s">
-        <v>2407</v>
       </c>
       <c r="C230" s="132" t="s">
         <v>270</v>
@@ -52045,16 +52196,16 @@
       <c r="D230" s="132"/>
       <c r="E230" s="132"/>
       <c r="F230" s="132" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G230" s="132"/>
       <c r="H230" s="174"/>
       <c r="I230" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J230" s="132"/>
       <c r="K230" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L230" s="118">
         <v>100</v>
@@ -52065,7 +52216,7 @@
     </row>
     <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="174" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B231" s="154"/>
       <c r="C231" s="132" t="s">
@@ -52074,7 +52225,7 @@
       <c r="D231" s="132"/>
       <c r="E231" s="132"/>
       <c r="F231" s="132" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="G231" s="132"/>
       <c r="H231" s="174"/>
@@ -52083,7 +52234,7 @@
       </c>
       <c r="J231" s="132"/>
       <c r="K231" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L231" s="132">
         <v>60</v>
@@ -52094,7 +52245,7 @@
     </row>
     <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="174" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B232" s="154"/>
       <c r="C232" s="132" t="s">
@@ -52103,7 +52254,7 @@
       <c r="D232" s="132"/>
       <c r="E232" s="132"/>
       <c r="F232" s="132" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="G232" s="132"/>
       <c r="H232" s="174"/>
@@ -52112,10 +52263,10 @@
       </c>
       <c r="J232" s="132"/>
       <c r="K232" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L232" s="132" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="M232" s="118">
         <v>100</v>
@@ -52123,20 +52274,20 @@
     </row>
     <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="174" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B233" s="154" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C233" s="132" t="s">
         <v>270</v>
       </c>
       <c r="D233" s="132"/>
       <c r="E233" s="132" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="F233" s="132" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G233" s="132"/>
       <c r="H233" s="174"/>
@@ -52145,7 +52296,7 @@
       </c>
       <c r="J233" s="118"/>
       <c r="K233" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L233" s="132">
         <v>70</v>
@@ -52156,7 +52307,7 @@
     </row>
     <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="122" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B234" s="125"/>
       <c r="C234" s="118" t="s">
@@ -52165,7 +52316,7 @@
       <c r="D234" s="118"/>
       <c r="E234" s="118"/>
       <c r="F234" s="132" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G234" s="118"/>
       <c r="H234" s="122"/>
@@ -52174,10 +52325,10 @@
       </c>
       <c r="J234" s="132"/>
       <c r="K234" s="118" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L234" s="118" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M234" s="118">
         <v>95</v>
@@ -52185,7 +52336,7 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="174" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B235" s="154"/>
       <c r="C235" s="132" t="s">
@@ -52194,7 +52345,7 @@
       <c r="D235" s="132"/>
       <c r="E235" s="132"/>
       <c r="F235" s="132" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="G235" s="132"/>
       <c r="H235" s="174"/>
@@ -52203,7 +52354,7 @@
       </c>
       <c r="J235" s="132"/>
       <c r="K235" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L235" s="132">
         <v>70</v>
@@ -52214,7 +52365,7 @@
     </row>
     <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="186" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B236" s="114"/>
       <c r="C236" s="115" t="s">
@@ -52223,7 +52374,7 @@
       <c r="D236" s="116"/>
       <c r="E236" s="113"/>
       <c r="F236" s="117" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G236" s="113"/>
       <c r="H236" s="186"/>
@@ -52232,10 +52383,10 @@
       </c>
       <c r="J236" s="118"/>
       <c r="K236" s="116" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L236" s="116" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M236" s="118">
         <v>90</v>
@@ -52243,7 +52394,7 @@
     </row>
     <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="122" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B237" s="120"/>
       <c r="C237" s="121" t="s">
@@ -52252,7 +52403,7 @@
       <c r="D237" s="73"/>
       <c r="E237" s="122"/>
       <c r="F237" s="123" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G237" s="122"/>
       <c r="H237" s="122"/>
@@ -52261,10 +52412,10 @@
       </c>
       <c r="J237" s="118"/>
       <c r="K237" s="122" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L237" s="130" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M237" s="118">
         <v>90</v>
@@ -52272,7 +52423,7 @@
     </row>
     <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="174" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B238" s="154"/>
       <c r="C238" s="132" t="s">
@@ -52281,7 +52432,7 @@
       <c r="D238" s="132"/>
       <c r="E238" s="132"/>
       <c r="F238" s="132" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G238" s="132"/>
       <c r="H238" s="174"/>
@@ -52290,10 +52441,10 @@
       </c>
       <c r="J238" s="118"/>
       <c r="K238" s="132" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L238" s="132" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M238" s="118">
         <v>90</v>
@@ -52301,20 +52452,20 @@
     </row>
     <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="174" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B239" s="154" t="s">
         <v>2523</v>
-      </c>
-      <c r="B239" s="154" t="s">
-        <v>2524</v>
       </c>
       <c r="C239" s="132" t="s">
         <v>270</v>
       </c>
       <c r="D239" s="132"/>
       <c r="E239" s="132" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="F239" s="132" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G239" s="132"/>
       <c r="H239" s="174"/>
@@ -52323,7 +52474,7 @@
       </c>
       <c r="J239" s="118"/>
       <c r="K239" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L239" s="132">
         <v>40</v>
@@ -52334,7 +52485,7 @@
     </row>
     <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="174" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B240" s="154"/>
       <c r="C240" s="132" t="s">
@@ -52343,16 +52494,16 @@
       <c r="D240" s="132"/>
       <c r="E240" s="132"/>
       <c r="F240" s="132" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="G240" s="132"/>
       <c r="H240" s="174"/>
       <c r="I240" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J240" s="118"/>
       <c r="K240" s="132" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L240" s="132">
         <v>94</v>
@@ -52363,10 +52514,10 @@
     </row>
     <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="174" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B241" s="154" t="s">
         <v>2528</v>
-      </c>
-      <c r="B241" s="154" t="s">
-        <v>2529</v>
       </c>
       <c r="C241" s="132" t="s">
         <v>270</v>
@@ -52374,18 +52525,18 @@
       <c r="D241" s="132"/>
       <c r="E241" s="132"/>
       <c r="F241" s="132" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G241" s="132"/>
       <c r="H241" s="174"/>
       <c r="I241" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J241" s="118" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="K241" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L241" s="132">
         <v>40</v>
@@ -52396,7 +52547,7 @@
     </row>
     <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="187" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B242" s="165"/>
       <c r="C242" s="164" t="s">
@@ -52405,7 +52556,7 @@
       <c r="D242" s="164"/>
       <c r="E242" s="164"/>
       <c r="F242" s="164" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G242" s="164"/>
       <c r="H242" s="187"/>
@@ -52415,16 +52566,16 @@
       <c r="J242" s="164"/>
       <c r="K242" s="164"/>
       <c r="L242" s="163" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M242" s="164"/>
     </row>
     <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="187" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B243" s="165" t="s">
         <v>2531</v>
-      </c>
-      <c r="B243" s="165" t="s">
-        <v>2532</v>
       </c>
       <c r="C243" s="164" t="s">
         <v>270</v>
@@ -52432,12 +52583,12 @@
       <c r="D243" s="164"/>
       <c r="E243" s="164"/>
       <c r="F243" s="164" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G243" s="164"/>
       <c r="H243" s="187"/>
       <c r="I243" s="164" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J243" s="164">
         <v>1209</v>
@@ -52452,10 +52603,10 @@
     </row>
     <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="163" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B244" s="167" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C244" s="166" t="s">
         <v>270</v>
@@ -52463,12 +52614,12 @@
       <c r="D244" s="166"/>
       <c r="E244" s="166"/>
       <c r="F244" s="166" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G244" s="166"/>
       <c r="H244" s="163"/>
       <c r="I244" s="166" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J244" s="166">
         <v>1217</v>
@@ -52483,10 +52634,10 @@
     </row>
     <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="174" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B245" s="154" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C245" s="132" t="s">
         <v>270</v>
@@ -52494,12 +52645,12 @@
       <c r="D245" s="132"/>
       <c r="E245" s="132"/>
       <c r="F245" s="132" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G245" s="132"/>
       <c r="H245" s="174"/>
       <c r="I245" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J245" s="132">
         <v>1216</v>
@@ -52514,10 +52665,10 @@
     </row>
     <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="174" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B246" s="154" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C246" s="132" t="s">
         <v>270</v>
@@ -52525,12 +52676,12 @@
       <c r="D246" s="132"/>
       <c r="E246" s="132"/>
       <c r="F246" s="132" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G246" s="132"/>
       <c r="H246" s="174"/>
       <c r="I246" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J246" s="132">
         <v>1219</v>
@@ -52545,10 +52696,10 @@
     </row>
     <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="174" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B247" s="154" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C247" s="132" t="s">
         <v>270</v>
@@ -52556,18 +52707,18 @@
       <c r="D247" s="132"/>
       <c r="E247" s="132"/>
       <c r="F247" s="132" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G247" s="132"/>
       <c r="H247" s="174"/>
       <c r="I247" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J247" s="132">
         <v>18142</v>
       </c>
       <c r="K247" s="132" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L247" s="168">
         <v>40</v>
@@ -52578,10 +52729,10 @@
     </row>
     <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="188" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B248" s="170" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C248" s="132" t="s">
         <v>270</v>
@@ -52589,15 +52740,15 @@
       <c r="D248" s="169"/>
       <c r="E248" s="169"/>
       <c r="F248" s="164" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G248" s="169"/>
       <c r="H248" s="188"/>
       <c r="I248" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J248" s="169" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K248" s="169"/>
       <c r="L248" s="163">
@@ -52609,10 +52760,10 @@
     </row>
     <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="174" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B249" s="154" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C249" s="132" t="s">
         <v>270</v>
@@ -52620,15 +52771,15 @@
       <c r="D249" s="132"/>
       <c r="E249" s="132"/>
       <c r="F249" s="132" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G249" s="132"/>
       <c r="H249" s="174"/>
       <c r="I249" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J249" s="132" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="K249" s="132"/>
       <c r="L249" s="168">
@@ -52640,10 +52791,10 @@
     </row>
     <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="174" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B250" s="154" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C250" s="132" t="s">
         <v>270</v>
@@ -52651,12 +52802,12 @@
       <c r="D250" s="132"/>
       <c r="E250" s="132"/>
       <c r="F250" s="132" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="G250" s="132"/>
       <c r="H250" s="174"/>
       <c r="I250" s="132" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J250" s="132">
         <v>10729</v>
@@ -52671,10 +52822,10 @@
     </row>
     <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="188" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B251" s="170" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C251" s="169" t="s">
         <v>270</v>
@@ -52682,15 +52833,15 @@
       <c r="D251" s="169"/>
       <c r="E251" s="169"/>
       <c r="F251" s="169" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G251" s="169"/>
       <c r="H251" s="188"/>
       <c r="I251" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J251" s="169" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="K251" s="169"/>
       <c r="L251" s="163">
@@ -52702,10 +52853,10 @@
     </row>
     <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="188" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B252" s="170" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C252" s="169" t="s">
         <v>270</v>
@@ -52713,12 +52864,12 @@
       <c r="D252" s="169"/>
       <c r="E252" s="169"/>
       <c r="F252" s="169" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="G252" s="169"/>
       <c r="H252" s="188"/>
       <c r="I252" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J252" s="169">
         <v>12173</v>
@@ -52733,7 +52884,7 @@
     </row>
     <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="188" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B253" s="170"/>
       <c r="C253" s="169" t="s">
@@ -52742,15 +52893,15 @@
       <c r="D253" s="169"/>
       <c r="E253" s="169"/>
       <c r="F253" s="169" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="G253" s="169"/>
       <c r="H253" s="188"/>
       <c r="I253" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J253" s="169" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="K253" s="169"/>
       <c r="L253" s="175">
@@ -52762,7 +52913,7 @@
     </row>
     <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="188" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B254" s="170"/>
       <c r="C254" s="169" t="s">
@@ -52771,15 +52922,15 @@
       <c r="D254" s="169"/>
       <c r="E254" s="169"/>
       <c r="F254" s="169" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G254" s="169"/>
       <c r="H254" s="188"/>
       <c r="I254" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J254" s="169" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="K254" s="169"/>
       <c r="L254" s="175">
@@ -52791,10 +52942,10 @@
     </row>
     <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="188" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B255" s="170" t="s">
         <v>2417</v>
-      </c>
-      <c r="B255" s="170" t="s">
-        <v>2418</v>
       </c>
       <c r="C255" s="169" t="s">
         <v>270</v>
@@ -52802,18 +52953,18 @@
       <c r="D255" s="169"/>
       <c r="E255" s="169"/>
       <c r="F255" s="169" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G255" s="169"/>
       <c r="H255" s="188"/>
       <c r="I255" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J255" s="169" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="K255" s="169" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L255" s="175">
         <v>97</v>
@@ -52824,7 +52975,7 @@
     </row>
     <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="188" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B256" s="170"/>
       <c r="C256" s="169" t="s">
@@ -52833,15 +52984,15 @@
       <c r="D256" s="169"/>
       <c r="E256" s="169"/>
       <c r="F256" s="169" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G256" s="169"/>
       <c r="H256" s="188"/>
       <c r="I256" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J256" s="169" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="K256" s="169"/>
       <c r="L256" s="175">
@@ -52853,10 +53004,10 @@
     </row>
     <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="188" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B257" s="170" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C257" s="169" t="s">
         <v>270</v>
@@ -52864,15 +53015,15 @@
       <c r="D257" s="169"/>
       <c r="E257" s="169"/>
       <c r="F257" s="169" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G257" s="169"/>
       <c r="H257" s="188"/>
       <c r="I257" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J257" s="169" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="K257" s="169"/>
       <c r="L257" s="175">
@@ -52884,10 +53035,10 @@
     </row>
     <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="188" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B258" s="170" t="s">
         <v>2428</v>
-      </c>
-      <c r="B258" s="170" t="s">
-        <v>2429</v>
       </c>
       <c r="C258" s="169" t="s">
         <v>270</v>
@@ -52895,15 +53046,15 @@
       <c r="D258" s="169"/>
       <c r="E258" s="169"/>
       <c r="F258" s="169" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G258" s="169"/>
       <c r="H258" s="188"/>
       <c r="I258" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J258" s="169" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="K258" s="169"/>
       <c r="L258" s="175">
@@ -52915,10 +53066,10 @@
     </row>
     <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="188" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B259" s="170" t="s">
         <v>2551</v>
-      </c>
-      <c r="B259" s="170" t="s">
-        <v>2552</v>
       </c>
       <c r="C259" s="169" t="s">
         <v>270</v>
@@ -52926,18 +53077,18 @@
       <c r="D259" s="169"/>
       <c r="E259" s="169"/>
       <c r="F259" s="169" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G259" s="169"/>
       <c r="H259" s="188"/>
       <c r="I259" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J259" s="169" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="K259" s="169" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L259" s="175">
         <v>70</v>
@@ -52948,10 +53099,10 @@
     </row>
     <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="188" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B260" s="170" t="s">
         <v>2554</v>
-      </c>
-      <c r="B260" s="170" t="s">
-        <v>2555</v>
       </c>
       <c r="C260" s="169" t="s">
         <v>270</v>
@@ -52959,15 +53110,15 @@
       <c r="D260" s="169"/>
       <c r="E260" s="169"/>
       <c r="F260" s="169" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G260" s="169"/>
       <c r="H260" s="188"/>
       <c r="I260" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J260" s="169" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K260" s="169"/>
       <c r="L260" s="175">
@@ -52979,10 +53130,10 @@
     </row>
     <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="188" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B261" s="170" t="s">
         <v>2557</v>
-      </c>
-      <c r="B261" s="170" t="s">
-        <v>2558</v>
       </c>
       <c r="C261" s="169" t="s">
         <v>270</v>
@@ -52990,15 +53141,15 @@
       <c r="D261" s="169"/>
       <c r="E261" s="169"/>
       <c r="F261" s="169" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G261" s="169"/>
       <c r="H261" s="188"/>
       <c r="I261" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J261" s="169" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="K261" s="169"/>
       <c r="L261" s="175">
@@ -53010,10 +53161,10 @@
     </row>
     <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="188" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B262" s="170" t="s">
         <v>2560</v>
-      </c>
-      <c r="B262" s="170" t="s">
-        <v>2561</v>
       </c>
       <c r="C262" s="169" t="s">
         <v>270</v>
@@ -53021,15 +53172,15 @@
       <c r="D262" s="169"/>
       <c r="E262" s="169"/>
       <c r="F262" s="169" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G262" s="169"/>
       <c r="H262" s="188"/>
       <c r="I262" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J262" s="169" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="K262" s="169"/>
       <c r="L262" s="175">
@@ -53041,7 +53192,7 @@
     </row>
     <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="188" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B263" s="170" t="s">
         <v>311</v>
@@ -53056,7 +53207,7 @@
         <v>502</v>
       </c>
       <c r="F263" s="169" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="G263" s="169" t="s">
         <v>425</v>
@@ -53065,13 +53216,13 @@
         <v>500</v>
       </c>
       <c r="I263" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J263" s="169" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="K263" s="169" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L263" s="175">
         <v>80</v>
@@ -53082,31 +53233,31 @@
     </row>
     <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="188" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B264" s="170" t="s">
         <v>2566</v>
-      </c>
-      <c r="B264" s="170" t="s">
-        <v>2567</v>
       </c>
       <c r="C264" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D264" s="169" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E264" s="169"/>
       <c r="F264" s="169" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="G264" s="169"/>
       <c r="H264" s="188"/>
       <c r="I264" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J264" s="169" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="K264" s="169" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L264" s="175">
         <v>100</v>
@@ -53117,31 +53268,31 @@
     </row>
     <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="188" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B265" s="170" t="s">
         <v>2441</v>
-      </c>
-      <c r="B265" s="170" t="s">
-        <v>2442</v>
       </c>
       <c r="C265" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D265" s="169" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E265" s="169"/>
       <c r="F265" s="169" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G265" s="169"/>
       <c r="H265" s="188"/>
       <c r="I265" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J265" s="169" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="K265" s="169" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L265" s="175">
         <v>97</v>
@@ -53152,22 +53303,22 @@
     </row>
     <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="188" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B266" s="170" t="s">
         <v>2434</v>
-      </c>
-      <c r="B266" s="170" t="s">
-        <v>2435</v>
       </c>
       <c r="C266" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D266" s="169" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E266" s="169" t="s">
         <v>2436</v>
       </c>
-      <c r="E266" s="169" t="s">
-        <v>2437</v>
-      </c>
       <c r="F266" s="169" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G266" s="169"/>
       <c r="H266" s="188"/>
@@ -53176,31 +53327,31 @@
       </c>
       <c r="J266" s="169"/>
       <c r="K266" s="169" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="L266" s="175" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M266" s="169"/>
     </row>
     <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="188" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B267" s="170" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C267" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D267" s="169" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E267" s="169" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="F267" s="169" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="G267" s="169"/>
       <c r="H267" s="188"/>
@@ -53209,19 +53360,19 @@
       </c>
       <c r="J267" s="169"/>
       <c r="K267" s="169" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="L267" s="175" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M267" s="169"/>
     </row>
     <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="188" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B268" s="170" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C268" s="169" t="s">
         <v>270</v>
@@ -53233,7 +53384,7 @@
         <v>488</v>
       </c>
       <c r="F268" s="169" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="G268" s="169" t="s">
         <v>425</v>
@@ -53242,13 +53393,13 @@
         <v>426</v>
       </c>
       <c r="I268" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J268" s="169" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K268" s="169" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="L268" s="175">
         <v>100</v>
@@ -53259,22 +53410,22 @@
     </row>
     <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="188" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B269" s="170" t="s">
         <v>2573</v>
-      </c>
-      <c r="B269" s="170" t="s">
-        <v>2574</v>
       </c>
       <c r="C269" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D269" s="169" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E269" s="169" t="s">
         <v>2575</v>
       </c>
-      <c r="E269" s="169" t="s">
-        <v>2576</v>
-      </c>
       <c r="F269" s="169" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G269" s="169"/>
       <c r="H269" s="188"/>
@@ -53290,10 +53441,10 @@
     </row>
     <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="188" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B270" s="170" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C270" s="169" t="s">
         <v>270</v>
@@ -53301,7 +53452,7 @@
       <c r="D270" s="169"/>
       <c r="E270" s="169"/>
       <c r="F270" s="169" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="G270" s="169"/>
       <c r="H270" s="188"/>
@@ -53319,30 +53470,30 @@
     </row>
     <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="188" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B271" s="170" t="s">
         <v>2578</v>
-      </c>
-      <c r="B271" s="170" t="s">
-        <v>2579</v>
       </c>
       <c r="C271" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D271" s="169" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E271" s="169" t="s">
         <v>2580</v>
       </c>
-      <c r="E271" s="169" t="s">
-        <v>2581</v>
-      </c>
       <c r="F271" s="169" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="G271" s="169"/>
       <c r="H271" s="188"/>
       <c r="I271" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J271" s="169" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="K271" s="169"/>
       <c r="L271" s="175">
@@ -53354,18 +53505,18 @@
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="188" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B272" s="170"/>
       <c r="C272" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D272" s="169" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E272" s="169"/>
       <c r="F272" s="169" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="G272" s="169"/>
       <c r="H272" s="188"/>
@@ -53373,7 +53524,7 @@
       <c r="J272" s="169"/>
       <c r="K272" s="169"/>
       <c r="L272" s="175" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="M272" s="169">
         <v>100</v>
@@ -53381,10 +53532,10 @@
     </row>
     <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="188" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B273" s="170" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C273" s="169" t="s">
         <v>270</v>
@@ -53392,12 +53543,12 @@
       <c r="D273" s="169"/>
       <c r="E273" s="169"/>
       <c r="F273" s="169" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="G273" s="169"/>
       <c r="H273" s="188"/>
       <c r="I273" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J273" s="169"/>
       <c r="K273" s="169"/>
@@ -53410,10 +53561,10 @@
     </row>
     <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="188" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B274" s="170" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C274" s="169" t="s">
         <v>270</v>
@@ -53421,7 +53572,7 @@
       <c r="D274" s="169"/>
       <c r="E274" s="169"/>
       <c r="F274" s="169" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="G274" s="169"/>
       <c r="H274" s="188"/>
@@ -53433,28 +53584,28 @@
     </row>
     <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="188" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B275" s="170" t="s">
         <v>2588</v>
-      </c>
-      <c r="B275" s="170" t="s">
-        <v>2589</v>
       </c>
       <c r="C275" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D275" s="169" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E275" s="169"/>
       <c r="F275" s="169" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="G275" s="169"/>
       <c r="H275" s="188"/>
       <c r="I275" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J275" s="169" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="K275" s="169"/>
       <c r="L275" s="175">
@@ -53466,22 +53617,22 @@
     </row>
     <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="188" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B276" s="170" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C276" s="169" t="s">
         <v>2592</v>
       </c>
-      <c r="B276" s="170" t="s">
-        <v>2592</v>
-      </c>
-      <c r="C276" s="169" t="s">
+      <c r="D276" s="169" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E276" s="169" t="s">
         <v>2593</v>
       </c>
-      <c r="D276" s="169" t="s">
-        <v>2592</v>
-      </c>
-      <c r="E276" s="169" t="s">
+      <c r="F276" s="169" t="s">
         <v>2594</v>
-      </c>
-      <c r="F276" s="169" t="s">
-        <v>2595</v>
       </c>
       <c r="G276" s="169"/>
       <c r="H276" s="188"/>
@@ -53497,10 +53648,10 @@
     </row>
     <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="188" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B277" s="170" t="s">
         <v>2596</v>
-      </c>
-      <c r="B277" s="170" t="s">
-        <v>2597</v>
       </c>
       <c r="C277" s="169" t="s">
         <v>270</v>
@@ -53508,16 +53659,16 @@
       <c r="D277" s="169"/>
       <c r="E277" s="169"/>
       <c r="F277" s="169" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G277" s="169"/>
       <c r="H277" s="188"/>
       <c r="I277" s="169"/>
       <c r="J277" s="169" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="K277" s="169" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L277" s="175">
         <v>100</v>
@@ -53528,28 +53679,28 @@
     </row>
     <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="188" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B278" s="170" t="s">
         <v>2599</v>
-      </c>
-      <c r="B278" s="170" t="s">
-        <v>2600</v>
       </c>
       <c r="C278" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D278" s="169" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="E278" s="169"/>
       <c r="F278" s="169" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="G278" s="169"/>
       <c r="H278" s="188"/>
       <c r="I278" s="169" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J278" s="169" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="K278" s="169"/>
       <c r="L278" s="175"/>
@@ -53557,20 +53708,20 @@
     </row>
     <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="188" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B279" s="170" t="s">
         <v>2604</v>
-      </c>
-      <c r="B279" s="170" t="s">
-        <v>2605</v>
       </c>
       <c r="C279" s="169" t="s">
         <v>270</v>
       </c>
       <c r="D279" s="169" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E279" s="169"/>
       <c r="F279" s="169" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="G279" s="169"/>
       <c r="H279" s="188"/>
@@ -53582,7 +53733,7 @@
     </row>
     <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="188" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B280" s="170"/>
       <c r="C280" s="169" t="s">
@@ -53591,7 +53742,7 @@
       <c r="D280" s="169"/>
       <c r="E280" s="169"/>
       <c r="F280" s="169" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="G280" s="169"/>
       <c r="H280" s="188"/>
@@ -53733,11 +53884,797 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6497DA4-810C-4095-8D38-64DE76A43617}">
+  <dimension ref="A1:B252"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="71"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="29"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="29"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="29"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="29"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="29"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="29"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="29"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="29"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="29"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="29"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="29"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="29"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="29"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="29"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="29"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="29"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="29"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="29"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="29"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="29"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="29"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="29"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="29"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="29"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="29"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="29"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="29"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="29"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="29"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="29"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="29"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="29"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="29"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="29"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="29"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="29"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="29"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="29"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="29"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="29"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="29"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="29"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="29"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="29"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="29"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="29"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="29"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="29"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="29"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="29"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="29"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="29"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="29"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="29"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="29"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="29"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="29"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="29"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="29"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="29"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="29"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="29"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="29"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="29"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="29"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="29"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="29"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="29"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="29"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="29"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="29"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="29"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="29"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="29"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="29"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="29"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="29"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="29"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="29"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="29"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="29"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="29"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="29"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="29"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="29"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="29"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="29"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="29"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="29"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="29"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="29"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="29"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="29"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="29"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="29"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="29"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="29"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="29"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="29"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="29"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="29"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="29"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="29"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="29"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="29"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="29"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="29"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="29"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="29"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="29"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="29"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="29"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="29"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="29"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="29"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="29"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="29"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="29"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="29"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="29"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="29"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="29"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="29"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="29"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="29"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="29"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="29"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="29"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="29"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="29"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="29"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="29"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="29"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="29"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="29"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="29"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="29"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="29"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="29"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="29"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="29"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="29"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="29"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="29"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="29"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="29"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="29"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="29"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="29"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="29"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="29"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="29"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="29"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="29"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="29"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="29"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="29"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="29"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="29"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="29"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -53755,77 +54692,77 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -54546,7 +55483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:A251"/>
@@ -55329,7 +56266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B14A48-F95E-44A1-B5B6-B32807B16D2B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -55346,12 +56283,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
